--- a/data/planning/test60.xlsx
+++ b/data/planning/test60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/data/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="499" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED03A624-2086-4242-AF32-0FD4F50AD3FB}"/>
+  <xr:revisionPtr revIDLastSave="544" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3FAE9E2-664D-4E4E-ABA4-2922938DB8E7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
   </bookViews>
   <sheets>
     <sheet name="cand" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -327,6 +327,162 @@
   </si>
   <si>
     <t>0.9;</t>
+  </si>
+  <si>
+    <t>Operating conditions</t>
+  </si>
+  <si>
+    <t>rho_o4</t>
+  </si>
+  <si>
+    <t>rho_o5</t>
+  </si>
+  <si>
+    <t>rho_o6</t>
+  </si>
+  <si>
+    <t>rho_o7</t>
+  </si>
+  <si>
+    <t>rho_o8</t>
+  </si>
+  <si>
+    <t>rho_o9</t>
+  </si>
+  <si>
+    <t>rho_o10</t>
+  </si>
+  <si>
+    <t>rho_o11</t>
+  </si>
+  <si>
+    <t>rho_o12</t>
+  </si>
+  <si>
+    <t>rho_o13</t>
+  </si>
+  <si>
+    <t>rho_o14</t>
+  </si>
+  <si>
+    <t>rho_o15</t>
+  </si>
+  <si>
+    <t>rho_o16</t>
+  </si>
+  <si>
+    <t>rho_o17</t>
+  </si>
+  <si>
+    <t>rho_o18</t>
+  </si>
+  <si>
+    <t>rho_o19</t>
+  </si>
+  <si>
+    <t>rho_o20</t>
+  </si>
+  <si>
+    <t>Load_t1_o4</t>
+  </si>
+  <si>
+    <t>Load_t1_o5</t>
+  </si>
+  <si>
+    <t>Load_t1_o6</t>
+  </si>
+  <si>
+    <t>Load_t1_o7</t>
+  </si>
+  <si>
+    <t>Load_t1_o8</t>
+  </si>
+  <si>
+    <t>Load_t1_o9</t>
+  </si>
+  <si>
+    <t>Load_t1_o10</t>
+  </si>
+  <si>
+    <t>Load_t1_o11</t>
+  </si>
+  <si>
+    <t>Load_t1_o12</t>
+  </si>
+  <si>
+    <t>Load_t1_o13</t>
+  </si>
+  <si>
+    <t>Load_t1_o14</t>
+  </si>
+  <si>
+    <t>Load_t1_o15</t>
+  </si>
+  <si>
+    <t>Load_t1_o16</t>
+  </si>
+  <si>
+    <t>Load_t1_o17</t>
+  </si>
+  <si>
+    <t>Load_t1_o18</t>
+  </si>
+  <si>
+    <t>Load_t1_o19</t>
+  </si>
+  <si>
+    <t>Load_t1_o20</t>
+  </si>
+  <si>
+    <t>Load_t2_o4</t>
+  </si>
+  <si>
+    <t>Load_t2_o5</t>
+  </si>
+  <si>
+    <t>Load_t2_o6</t>
+  </si>
+  <si>
+    <t>Load_t2_o7</t>
+  </si>
+  <si>
+    <t>Load_t2_o8</t>
+  </si>
+  <si>
+    <t>Load_t2_o9</t>
+  </si>
+  <si>
+    <t>Load_t2_o10</t>
+  </si>
+  <si>
+    <t>Load_t2_o11</t>
+  </si>
+  <si>
+    <t>Load_t2_o12</t>
+  </si>
+  <si>
+    <t>Load_t2_o13</t>
+  </si>
+  <si>
+    <t>Load_t2_o14</t>
+  </si>
+  <si>
+    <t>Load_t2_o15</t>
+  </si>
+  <si>
+    <t>Load_t2_o16</t>
+  </si>
+  <si>
+    <t>Load_t2_o17</t>
+  </si>
+  <si>
+    <t>Load_t2_o18</t>
+  </si>
+  <si>
+    <t>Load_t2_o19</t>
+  </si>
+  <si>
+    <t>Load_t2_o20</t>
   </si>
 </sst>
 </file>
@@ -725,20 +881,20 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26171875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -772,10 +928,11 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <f>C2</f>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>70144</v>
@@ -790,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -798,10 +955,11 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <f t="shared" ref="D3:D33" si="0">C3</f>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>90228</v>
@@ -816,7 +974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -824,10 +982,11 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>89363</v>
@@ -842,7 +1001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -850,10 +1009,11 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>74393</v>
@@ -868,7 +1028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -876,10 +1036,11 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>99460</v>
@@ -894,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -905,6 +1066,7 @@
         <v>24</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E7">
@@ -920,7 +1082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -928,10 +1090,11 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>72750</v>
@@ -946,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -954,10 +1117,11 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>75763</v>
@@ -972,7 +1136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -980,10 +1144,11 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>92765</v>
@@ -998,7 +1163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1006,10 +1171,11 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>94676</v>
@@ -1024,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1032,10 +1198,11 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>99055</v>
@@ -1050,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1058,10 +1225,11 @@
         <v>40</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>98286</v>
@@ -1076,7 +1244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1084,10 +1252,11 @@
         <v>41</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>73583</v>
@@ -1102,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1110,10 +1279,11 @@
         <v>42</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>97144</v>
@@ -1128,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1136,10 +1306,11 @@
         <v>43</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>114186</v>
@@ -1154,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1162,10 +1333,11 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>101557</v>
@@ -1180,7 +1352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1188,10 +1360,11 @@
         <v>45</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>78751</v>
@@ -1206,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1214,10 +1387,11 @@
         <v>46</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>105416</v>
@@ -1232,7 +1406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1240,10 +1414,11 @@
         <v>47</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>102013</v>
@@ -1258,7 +1433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1266,10 +1441,11 @@
         <v>48</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>119776</v>
@@ -1284,7 +1460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1292,10 +1468,11 @@
         <v>49</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>99659</v>
@@ -1310,7 +1487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1318,10 +1495,11 @@
         <v>50</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>113665</v>
@@ -1336,7 +1514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1344,10 +1522,11 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>87565</v>
@@ -1362,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1370,10 +1549,11 @@
         <v>52</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>88018</v>
@@ -1388,7 +1568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1396,10 +1576,11 @@
         <v>53</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>94385</v>
@@ -1414,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1422,10 +1603,11 @@
         <v>54</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>117532</v>
@@ -1440,7 +1622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1448,10 +1630,11 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>87675</v>
@@ -1466,7 +1649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1474,10 +1657,11 @@
         <v>56</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>78593</v>
@@ -1492,7 +1676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1500,10 +1684,11 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>100834</v>
@@ -1518,7 +1703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1526,10 +1711,11 @@
         <v>58</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>104994</v>
@@ -1544,7 +1730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1552,10 +1738,11 @@
         <v>59</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>73775</v>
@@ -1570,7 +1757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1578,10 +1765,11 @@
         <v>60</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>114257</v>
@@ -1607,18 +1795,18 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D28"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1652,7 +1840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1669,7 +1857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1686,7 +1874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1703,7 +1891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1720,7 +1908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1737,7 +1925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1754,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1771,7 +1959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1788,7 +1976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1805,7 +1993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1822,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1839,7 +2027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1856,7 +2044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1873,7 +2061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1890,7 +2078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1907,7 +2095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1924,7 +2112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1941,7 +2129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1958,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1975,7 +2163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1992,7 +2180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2009,7 +2197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2035,20 +2223,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC92143-5A41-4DF7-AF25-4DED262BD3CF}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2076,14 +2264,14 @@
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <f>1/Sheet1!E98*10</f>
-        <v>142.85714285714283</v>
+        <f>1/(Sheet1!E98*130^2/100)*1000*2</f>
+        <v>169.06170752324599</v>
       </c>
       <c r="E2" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2094,14 +2282,14 @@
         <v>3</v>
       </c>
       <c r="D3" s="2">
-        <f>1/Sheet1!E99*10</f>
-        <v>142.85714285714283</v>
+        <f>1/(Sheet1!E99*130^2/100)*1000*2</f>
+        <v>169.06170752324599</v>
       </c>
       <c r="E3" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2112,14 +2300,14 @@
         <v>24</v>
       </c>
       <c r="D4" s="2">
-        <f>1/Sheet1!E100*10</f>
-        <v>111.11111111111111</v>
+        <f>1/(Sheet1!E100*130^2/100)*1000*2</f>
+        <v>131.49243918474687</v>
       </c>
       <c r="E4" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2130,14 +2318,14 @@
         <v>24</v>
       </c>
       <c r="D5" s="2">
-        <f>1/Sheet1!E101*10</f>
-        <v>111.11111111111111</v>
+        <f>1/(Sheet1!E101*130^2/100)*1000*2</f>
+        <v>131.49243918474687</v>
       </c>
       <c r="E5" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2148,14 +2336,14 @@
         <v>24</v>
       </c>
       <c r="D6" s="2">
-        <f>1/Sheet1!E102*10</f>
-        <v>200</v>
+        <f>1/(Sheet1!E102*130^2/100)*1000*2</f>
+        <v>236.68639053254441</v>
       </c>
       <c r="E6" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2166,14 +2354,14 @@
         <v>24</v>
       </c>
       <c r="D7" s="2">
-        <f>1/Sheet1!E103*10</f>
-        <v>200</v>
+        <f>1/(Sheet1!E103*130^2/100)*1000*2</f>
+        <v>236.68639053254441</v>
       </c>
       <c r="E7" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2184,14 +2372,14 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <f>1/Sheet1!E104*10</f>
-        <v>50</v>
+        <f>1/(Sheet1!E104*130^2/100)*1000*2</f>
+        <v>59.171597633136102</v>
       </c>
       <c r="E8" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2202,14 +2390,14 @@
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <f>1/Sheet1!E105*10</f>
-        <v>50</v>
+        <f>1/(Sheet1!E105*130^2/100)*1000*2</f>
+        <v>59.171597633136102</v>
       </c>
       <c r="E9" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2220,14 +2408,14 @@
         <v>7</v>
       </c>
       <c r="D10" s="2">
-        <f>1/Sheet1!E106*10</f>
-        <v>166.66666666666669</v>
+        <f>1/(Sheet1!E106*130^2/100)*1000*2</f>
+        <v>197.23865877712029</v>
       </c>
       <c r="E10" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2238,14 +2426,14 @@
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <f>1/Sheet1!E107*10</f>
-        <v>166.66666666666669</v>
+        <f>1/(Sheet1!E107*130^2/100)*1000*2</f>
+        <v>197.23865877712029</v>
       </c>
       <c r="E11" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2256,14 +2444,14 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <f>1/Sheet1!E108*10</f>
-        <v>83.333333333333343</v>
+        <f>1/(Sheet1!E108*130^2/100)*1000*2</f>
+        <v>98.619329388560146</v>
       </c>
       <c r="E12" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2274,14 +2462,14 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <f>1/Sheet1!E109*10</f>
-        <v>83.333333333333343</v>
+        <f>1/(Sheet1!E109*130^2/100)*1000*2</f>
+        <v>98.619329388560146</v>
       </c>
       <c r="E13" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2292,14 +2480,14 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <f>1/Sheet1!E110*10</f>
-        <v>35.714285714285708</v>
+        <f>1/(Sheet1!E110*130^2/100)*1000*2</f>
+        <v>42.265426880811496</v>
       </c>
       <c r="E14" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2310,14 +2498,14 @@
         <v>8</v>
       </c>
       <c r="D15" s="2">
-        <f>1/Sheet1!E111*10</f>
-        <v>35.714285714285708</v>
+        <f>1/(Sheet1!E111*130^2/100)*1000*2</f>
+        <v>42.265426880811496</v>
       </c>
       <c r="E15" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2328,14 +2516,14 @@
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <f>1/Sheet1!E112*10</f>
-        <v>33.333333333333336</v>
+        <f>1/(Sheet1!E112*130^2/100)*1000*2</f>
+        <v>39.447731755424066</v>
       </c>
       <c r="E16" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2346,14 +2534,14 @@
         <v>8</v>
       </c>
       <c r="D17" s="2">
-        <f>1/Sheet1!E113*10</f>
-        <v>125</v>
+        <f>1/(Sheet1!E113*130^2/100)*1000*2</f>
+        <v>147.92899408284023</v>
       </c>
       <c r="E17" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2364,14 +2552,14 @@
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <f>1/Sheet1!E114*10</f>
-        <v>125</v>
+        <f>1/(Sheet1!E114*130^2/100)*1000*2</f>
+        <v>147.92899408284023</v>
       </c>
       <c r="E18" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2382,14 +2570,14 @@
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <f>1/Sheet1!E115*10</f>
-        <v>111.11111111111111</v>
+        <f>1/(Sheet1!E115*130^2/100)*1000*2</f>
+        <v>131.49243918474687</v>
       </c>
       <c r="E19" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2400,14 +2588,14 @@
         <v>11</v>
       </c>
       <c r="D20" s="2">
-        <f>1/Sheet1!E116*10</f>
-        <v>111.11111111111111</v>
+        <f>1/(Sheet1!E116*130^2/100)*1000*2</f>
+        <v>131.49243918474687</v>
       </c>
       <c r="E20" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2418,14 +2606,14 @@
         <v>23</v>
       </c>
       <c r="D21" s="2">
-        <f>1/Sheet1!E117*10</f>
-        <v>1250</v>
+        <f>1/(Sheet1!E117*130^2/100)*1000*2</f>
+        <v>1479.2899408284027</v>
       </c>
       <c r="E21" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2436,14 +2624,14 @@
         <v>27</v>
       </c>
       <c r="D22" s="2">
-        <f>1/Sheet1!E118*10</f>
-        <v>166.66666666666669</v>
+        <f>1/(Sheet1!E118*130^2/100)*1000*2</f>
+        <v>197.23865877712029</v>
       </c>
       <c r="E22" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2454,14 +2642,14 @@
         <v>28</v>
       </c>
       <c r="D23" s="2">
-        <f>1/Sheet1!E119*10</f>
-        <v>250</v>
+        <f>1/(Sheet1!E119*130^2/100)*1000*2</f>
+        <v>295.85798816568047</v>
       </c>
       <c r="E23" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2472,14 +2660,14 @@
         <v>12</v>
       </c>
       <c r="D24" s="2">
-        <f>1/Sheet1!E120*10</f>
-        <v>222.22222222222223</v>
+        <f>1/(Sheet1!E120*130^2/100)*1000*2</f>
+        <v>262.98487836949374</v>
       </c>
       <c r="E24" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2490,14 +2678,14 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <f>1/Sheet1!E121*10</f>
-        <v>285.71428571428567</v>
+        <f>1/(Sheet1!E121*130^2/100)*1000*2</f>
+        <v>338.12341504649197</v>
       </c>
       <c r="E25" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2508,14 +2696,14 @@
         <v>12</v>
       </c>
       <c r="D26" s="2">
-        <f>1/Sheet1!E122*10</f>
-        <v>200</v>
+        <f>1/(Sheet1!E122*130^2/100)*1000*2</f>
+        <v>236.68639053254441</v>
       </c>
       <c r="E26" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2526,14 +2714,14 @@
         <v>29</v>
       </c>
       <c r="D27" s="2">
-        <f>1/Sheet1!E123*10</f>
-        <v>250</v>
+        <f>1/(Sheet1!E123*130^2/100)*1000*2</f>
+        <v>295.85798816568047</v>
       </c>
       <c r="E27" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2544,14 +2732,14 @@
         <v>30</v>
       </c>
       <c r="D28" s="2">
-        <f>1/Sheet1!E124*10</f>
-        <v>100</v>
+        <f>1/(Sheet1!E124*130^2/100)*1000*2</f>
+        <v>118.3431952662722</v>
       </c>
       <c r="E28" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2562,14 +2750,14 @@
         <v>15</v>
       </c>
       <c r="D29" s="2">
-        <f>1/Sheet1!E125*10</f>
-        <v>-250</v>
+        <f>1/(Sheet1!E125*130^2/100)*1000*2</f>
+        <v>-295.85798816568047</v>
       </c>
       <c r="E29" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2580,14 +2768,14 @@
         <v>31</v>
       </c>
       <c r="D30" s="2">
-        <f>1/Sheet1!E126*10</f>
-        <v>250</v>
+        <f>1/(Sheet1!E126*130^2/100)*1000*2</f>
+        <v>295.85798816568047</v>
       </c>
       <c r="E30" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2598,14 +2786,14 @@
         <v>31</v>
       </c>
       <c r="D31" s="2">
-        <f>1/Sheet1!E127*10</f>
-        <v>250</v>
+        <f>1/(Sheet1!E127*130^2/100)*1000*2</f>
+        <v>295.85798816568047</v>
       </c>
       <c r="E31" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2616,14 +2804,14 @@
         <v>29</v>
       </c>
       <c r="D32" s="2">
-        <f>1/Sheet1!E128*10</f>
-        <v>1000</v>
+        <f>1/(Sheet1!E128*130^2/100)*1000*2</f>
+        <v>1183.4319526627219</v>
       </c>
       <c r="E32" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2634,14 +2822,14 @@
         <v>32</v>
       </c>
       <c r="D33" s="2">
-        <f>1/Sheet1!E129*10</f>
-        <v>125</v>
+        <f>1/(Sheet1!E129*130^2/100)*1000*2</f>
+        <v>147.92899408284023</v>
       </c>
       <c r="E33" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2652,14 +2840,14 @@
         <v>14</v>
       </c>
       <c r="D34" s="2">
-        <f>1/Sheet1!E130*10</f>
-        <v>-250</v>
+        <f>1/(Sheet1!E130*130^2/100)*1000*2</f>
+        <v>-295.85798816568047</v>
       </c>
       <c r="E34" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2670,14 +2858,14 @@
         <v>33</v>
       </c>
       <c r="D35" s="2">
-        <f>1/Sheet1!E131*10</f>
-        <v>125</v>
+        <f>1/(Sheet1!E131*130^2/100)*1000*2</f>
+        <v>147.92899408284023</v>
       </c>
       <c r="E35" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2688,14 +2876,14 @@
         <v>14</v>
       </c>
       <c r="D36" s="2">
-        <f>1/Sheet1!E132*10</f>
-        <v>-250</v>
+        <f>1/(Sheet1!E132*130^2/100)*1000*2</f>
+        <v>-295.85798816568047</v>
       </c>
       <c r="E36" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2706,14 +2894,14 @@
         <v>34</v>
       </c>
       <c r="D37" s="2">
-        <f>1/Sheet1!E133*10</f>
-        <v>149.99475018374355</v>
+        <f>1/(Sheet1!E133*130^2/100)*1000*2</f>
+        <v>177.50858009910479</v>
       </c>
       <c r="E37" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2724,14 +2912,14 @@
         <v>15</v>
       </c>
       <c r="D38" s="2">
-        <f>1/Sheet1!E134*10</f>
-        <v>-374.96719037084256</v>
+        <f>1/(Sheet1!E134*130^2/100)*1000*2</f>
+        <v>-443.74815428502075</v>
       </c>
       <c r="E38" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2742,14 +2930,14 @@
         <v>35</v>
       </c>
       <c r="D39" s="2">
-        <f>1/Sheet1!E135*10</f>
-        <v>125</v>
+        <f>1/(Sheet1!E135*130^2/100)*1000*2</f>
+        <v>147.92899408284023</v>
       </c>
       <c r="E39" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2760,14 +2948,14 @@
         <v>36</v>
       </c>
       <c r="D40" s="2">
-        <f>1/Sheet1!E136*10</f>
-        <v>-333.33333333333337</v>
+        <f>1/(Sheet1!E136*130^2/100)*1000*2</f>
+        <v>-394.47731755424059</v>
       </c>
       <c r="E40" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2778,14 +2966,14 @@
         <v>36</v>
       </c>
       <c r="D41" s="2">
-        <f>1/Sheet1!E137*10</f>
-        <v>333.33333333333337</v>
+        <f>1/(Sheet1!E137*130^2/100)*1000*2</f>
+        <v>394.47731755424059</v>
       </c>
       <c r="E41" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2796,14 +2984,14 @@
         <v>20</v>
       </c>
       <c r="D42" s="2">
-        <f>1/Sheet1!E138*10</f>
-        <v>222.22222222222223</v>
+        <f>1/(Sheet1!E138*130^2/100)*1000*2</f>
+        <v>262.98487836949374</v>
       </c>
       <c r="E42" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2814,14 +3002,14 @@
         <v>16</v>
       </c>
       <c r="D43" s="2">
-        <f>1/Sheet1!E139*10</f>
-        <v>666.66666666666674</v>
+        <f>1/(Sheet1!E139*130^2/100)*1000*2</f>
+        <v>788.95463510848117</v>
       </c>
       <c r="E43" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2832,14 +3020,14 @@
         <v>36</v>
       </c>
       <c r="D44" s="2">
-        <f>1/Sheet1!E140*10</f>
-        <v>500</v>
+        <f>1/(Sheet1!E140*130^2/100)*1000*2</f>
+        <v>591.71597633136093</v>
       </c>
       <c r="E44" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2850,14 +3038,14 @@
         <v>36</v>
       </c>
       <c r="D45" s="2">
-        <f>1/Sheet1!E141*10</f>
-        <v>1000</v>
+        <f>1/(Sheet1!E141*130^2/100)*1000*2</f>
+        <v>1183.4319526627219</v>
       </c>
       <c r="E45" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2868,14 +3056,14 @@
         <v>17</v>
       </c>
       <c r="D46" s="2">
-        <f>1/Sheet1!E142*10</f>
-        <v>1000</v>
+        <f>1/(Sheet1!E142*130^2/100)*1000*2</f>
+        <v>1183.4319526627219</v>
       </c>
       <c r="E46" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2886,14 +3074,14 @@
         <v>18</v>
       </c>
       <c r="D47" s="2">
-        <f>1/Sheet1!E143*10</f>
-        <v>500</v>
+        <f>1/(Sheet1!E143*130^2/100)*1000*2</f>
+        <v>591.71597633136093</v>
       </c>
       <c r="E47" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2904,14 +3092,14 @@
         <v>37</v>
       </c>
       <c r="D48" s="2">
-        <f>1/Sheet1!E144*10</f>
-        <v>500</v>
+        <f>1/(Sheet1!E144*130^2/100)*1000*2</f>
+        <v>591.71597633136093</v>
       </c>
       <c r="E48">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2922,14 +3110,14 @@
         <v>37</v>
       </c>
       <c r="D49" s="2">
-        <f>1/Sheet1!E145*10</f>
-        <v>500</v>
+        <f>1/(Sheet1!E145*130^2/100)*1000*2</f>
+        <v>591.71597633136093</v>
       </c>
       <c r="E49">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2940,14 +3128,14 @@
         <v>19</v>
       </c>
       <c r="D50" s="2">
-        <f>1/Sheet1!E146*10</f>
-        <v>250</v>
+        <f>1/(Sheet1!E146*130^2/100)*1000*2</f>
+        <v>295.85798816568047</v>
       </c>
       <c r="E50">
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2958,14 +3146,14 @@
         <v>19</v>
       </c>
       <c r="D51" s="2">
-        <f>1/Sheet1!E147*10</f>
-        <v>250</v>
+        <f>1/(Sheet1!E147*130^2/100)*1000*2</f>
+        <v>295.85798816568047</v>
       </c>
       <c r="E51">
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2976,14 +3164,14 @@
         <v>21</v>
       </c>
       <c r="D52" s="2">
-        <f>1/Sheet1!E148*10</f>
-        <v>125</v>
+        <f>1/(Sheet1!E148*130^2/100)*1000*2</f>
+        <v>147.92899408284023</v>
       </c>
       <c r="E52">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2994,14 +3182,14 @@
         <v>18</v>
       </c>
       <c r="D53" s="2">
-        <f>1/Sheet1!E149*10</f>
-        <v>666.66666666666674</v>
+        <f>1/(Sheet1!E149*130^2/100)*1000*2</f>
+        <v>788.95463510848117</v>
       </c>
       <c r="E53">
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3012,14 +3200,14 @@
         <v>21</v>
       </c>
       <c r="D54" s="2">
-        <f>1/Sheet1!E150*10</f>
-        <v>500</v>
+        <f>1/(Sheet1!E150*130^2/100)*1000*2</f>
+        <v>591.71597633136093</v>
       </c>
       <c r="E54">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3030,14 +3218,14 @@
         <v>22</v>
       </c>
       <c r="D55" s="2">
-        <f>1/Sheet1!E151*10</f>
-        <v>333.33333333333337</v>
+        <f>1/(Sheet1!E151*130^2/100)*1000*2</f>
+        <v>394.47731755424059</v>
       </c>
       <c r="E55">
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3048,14 +3236,14 @@
         <v>22</v>
       </c>
       <c r="D56" s="2">
-        <f>1/Sheet1!E152*10</f>
-        <v>333.33333333333337</v>
+        <f>1/(Sheet1!E152*130^2/100)*1000*2</f>
+        <v>394.47731755424059</v>
       </c>
       <c r="E56">
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3066,14 +3254,14 @@
         <v>13</v>
       </c>
       <c r="D57" s="2">
-        <f>1/Sheet1!E153*10</f>
-        <v>333.33333333333337</v>
+        <f>1/(Sheet1!E153*130^2/100)*1000*2</f>
+        <v>394.47731755424059</v>
       </c>
       <c r="E57">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3084,14 +3272,14 @@
         <v>13</v>
       </c>
       <c r="D58" s="2">
-        <f>1/Sheet1!E154*10</f>
-        <v>333.33333333333337</v>
+        <f>1/(Sheet1!E154*130^2/100)*1000*2</f>
+        <v>394.47731755424059</v>
       </c>
       <c r="E58">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3102,14 +3290,14 @@
         <v>38</v>
       </c>
       <c r="D59" s="2">
-        <f>1/Sheet1!E155*10</f>
-        <v>533.33333333333337</v>
+        <f>1/(Sheet1!E155*130^2/100)*1000*2</f>
+        <v>631.16370808678505</v>
       </c>
       <c r="E59">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3120,14 +3308,14 @@
         <v>39</v>
       </c>
       <c r="D60" s="2">
-        <f>1/Sheet1!E156*10</f>
-        <v>400</v>
+        <f>1/(Sheet1!E156*130^2/100)*1000*2</f>
+        <v>473.37278106508882</v>
       </c>
       <c r="E60">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3138,14 +3326,14 @@
         <v>40</v>
       </c>
       <c r="D61" s="2">
-        <f>1/Sheet1!E157*10</f>
-        <v>466.65733351999626</v>
+        <f>1/(Sheet1!E157*130^2/100)*1000*2</f>
+        <v>552.25719943194815</v>
       </c>
       <c r="E61">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3156,14 +3344,14 @@
         <v>41</v>
       </c>
       <c r="D62" s="2">
-        <f>1/Sheet1!E158*10</f>
-        <v>400</v>
+        <f>1/(Sheet1!E158*130^2/100)*1000*2</f>
+        <v>473.37278106508882</v>
       </c>
       <c r="E62">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3174,14 +3362,14 @@
         <v>42</v>
       </c>
       <c r="D63" s="2">
-        <f>1/Sheet1!E159*10</f>
-        <v>166.66666666666669</v>
+        <f>1/(Sheet1!E159*130^2/100)*1000*2</f>
+        <v>197.23865877712029</v>
       </c>
       <c r="E63">
         <v>1250</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3192,14 +3380,14 @@
         <v>43</v>
       </c>
       <c r="D64" s="2">
-        <f>1/Sheet1!E160*10</f>
-        <v>266.66666666666669</v>
+        <f>1/(Sheet1!E160*130^2/100)*1000*2</f>
+        <v>315.58185404339252</v>
       </c>
       <c r="E64">
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3210,14 +3398,14 @@
         <v>44</v>
       </c>
       <c r="D65" s="2">
-        <f>1/Sheet1!E161*10</f>
-        <v>133.33333333333334</v>
+        <f>1/(Sheet1!E161*130^2/100)*1000*2</f>
+        <v>157.79092702169626</v>
       </c>
       <c r="E65">
         <v>1200</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3228,14 +3416,14 @@
         <v>45</v>
       </c>
       <c r="D66" s="2">
-        <f>1/Sheet1!E162*10</f>
-        <v>566.66855556185192</v>
+        <f>1/(Sheet1!E162*130^2/100)*1000*2</f>
+        <v>670.61367522112641</v>
       </c>
       <c r="E66">
         <v>850</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3246,14 +3434,14 @@
         <v>46</v>
       </c>
       <c r="D67" s="2">
-        <f>1/Sheet1!E163*10</f>
-        <v>666.66666666666674</v>
+        <f>1/(Sheet1!E163*130^2/100)*1000*2</f>
+        <v>788.95463510848117</v>
       </c>
       <c r="E67">
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3264,14 +3452,14 @@
         <v>47</v>
       </c>
       <c r="D68" s="2">
-        <f>1/Sheet1!E164*10</f>
-        <v>533.33333333333337</v>
+        <f>1/(Sheet1!E164*130^2/100)*1000*2</f>
+        <v>631.16370808678505</v>
       </c>
       <c r="E68">
         <v>800</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3282,14 +3470,14 @@
         <v>48</v>
       </c>
       <c r="D69" s="2">
-        <f>1/Sheet1!E165*10</f>
-        <v>200</v>
+        <f>1/(Sheet1!E165*130^2/100)*1000*2</f>
+        <v>236.68639053254441</v>
       </c>
       <c r="E69">
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3300,14 +3488,14 @@
         <v>49</v>
       </c>
       <c r="D70" s="2">
-        <f>1/Sheet1!E166*10</f>
-        <v>233.3341111137037</v>
+        <f>1/(Sheet1!E166*130^2/100)*1000*2</f>
+        <v>276.13504273811094</v>
       </c>
       <c r="E70">
         <v>1350</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3318,14 +3506,14 @@
         <v>50</v>
       </c>
       <c r="D71" s="2">
-        <f>1/Sheet1!E167*10</f>
-        <v>300.00300003000029</v>
+        <f>1/(Sheet1!E167*130^2/100)*1000*2</f>
+        <v>355.03313613017787</v>
       </c>
       <c r="E71">
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3336,14 +3524,14 @@
         <v>51</v>
       </c>
       <c r="D72" s="2">
-        <f>1/Sheet1!E168*10</f>
-        <v>466.65733351999626</v>
+        <f>1/(Sheet1!E168*130^2/100)*1000*2</f>
+        <v>552.25719943194815</v>
       </c>
       <c r="E72">
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3354,14 +3542,14 @@
         <v>52</v>
       </c>
       <c r="D73" s="2">
-        <f>1/Sheet1!E169*10</f>
-        <v>400</v>
+        <f>1/(Sheet1!E169*130^2/100)*1000*2</f>
+        <v>473.37278106508882</v>
       </c>
       <c r="E73">
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3372,14 +3560,14 @@
         <v>53</v>
       </c>
       <c r="D74" s="2">
-        <f>1/Sheet1!E170*10</f>
-        <v>400</v>
+        <f>1/(Sheet1!E170*130^2/100)*1000*2</f>
+        <v>473.37278106508882</v>
       </c>
       <c r="E74">
         <v>600</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3390,14 +3578,14 @@
         <v>54</v>
       </c>
       <c r="D75" s="2">
-        <f>1/Sheet1!E171*10</f>
-        <v>466.65733351999626</v>
+        <f>1/(Sheet1!E171*130^2/100)*1000*2</f>
+        <v>552.25719943194815</v>
       </c>
       <c r="E75">
         <v>700</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3408,14 +3596,14 @@
         <v>55</v>
       </c>
       <c r="D76" s="2">
-        <f>1/Sheet1!E172*10</f>
-        <v>466.65733351999626</v>
+        <f>1/(Sheet1!E172*130^2/100)*1000*2</f>
+        <v>552.25719943194815</v>
       </c>
       <c r="E76">
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3426,14 +3614,14 @@
         <v>56</v>
       </c>
       <c r="D77" s="2">
-        <f>1/Sheet1!E173*10</f>
-        <v>400</v>
+        <f>1/(Sheet1!E173*130^2/100)*1000*2</f>
+        <v>473.37278106508882</v>
       </c>
       <c r="E77">
         <v>600</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3444,14 +3632,14 @@
         <v>57</v>
       </c>
       <c r="D78" s="2">
-        <f>1/Sheet1!E174*10</f>
-        <v>400</v>
+        <f>1/(Sheet1!E174*130^2/100)*1000*2</f>
+        <v>473.37278106508882</v>
       </c>
       <c r="E78">
         <v>600</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3462,14 +3650,14 @@
         <v>58</v>
       </c>
       <c r="D79" s="2">
-        <f>1/Sheet1!E175*10</f>
-        <v>400</v>
+        <f>1/(Sheet1!E175*130^2/100)*1000*2</f>
+        <v>473.37278106508882</v>
       </c>
       <c r="E79">
         <v>600</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3480,14 +3668,14 @@
         <v>59</v>
       </c>
       <c r="D80" s="2">
-        <f>1/Sheet1!E176*10</f>
-        <v>333.33333333333337</v>
+        <f>1/(Sheet1!E176*130^2/100)*1000*2</f>
+        <v>394.47731755424059</v>
       </c>
       <c r="E80">
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3498,14 +3686,14 @@
         <v>60</v>
       </c>
       <c r="D81" s="2">
-        <f>1/Sheet1!E177*10</f>
-        <v>3000.3000300030003</v>
+        <f>1/(Sheet1!E177*130^2/100)*1000*2</f>
+        <v>3550.6509230804736</v>
       </c>
       <c r="E81">
         <v>4500</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3516,14 +3704,14 @@
         <v>1</v>
       </c>
       <c r="D82" s="2">
-        <f>1/Sheet1!E178*10</f>
-        <v>1250</v>
+        <f>1/(Sheet1!E178*130^2/100)*1000*2</f>
+        <v>1479.2899408284027</v>
       </c>
       <c r="E82">
         <v>1250</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3534,14 +3722,14 @@
         <v>2</v>
       </c>
       <c r="D83" s="2">
-        <f>1/Sheet1!E179*10</f>
-        <v>1250</v>
+        <f>1/(Sheet1!E179*130^2/100)*1000*2</f>
+        <v>1479.2899408284027</v>
       </c>
       <c r="E83">
         <v>1250</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3552,14 +3740,14 @@
         <v>4</v>
       </c>
       <c r="D84" s="2">
-        <f>1/Sheet1!E180*10</f>
-        <v>833.33333333333326</v>
+        <f>1/(Sheet1!E180*130^2/100)*1000*2</f>
+        <v>986.19329388560163</v>
       </c>
       <c r="E84">
         <v>833.3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3570,14 +3758,14 @@
         <v>10</v>
       </c>
       <c r="D85" s="2">
-        <f>1/Sheet1!E181*10</f>
-        <v>833.33333333333326</v>
+        <f>1/(Sheet1!E181*130^2/100)*1000*2</f>
+        <v>986.19329388560163</v>
       </c>
       <c r="E85">
         <v>833.3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3588,14 +3776,14 @@
         <v>8</v>
       </c>
       <c r="D86" s="2">
-        <f>1/Sheet1!E182*10</f>
-        <v>1000</v>
+        <f>1/(Sheet1!E182*130^2/100)*1000*2</f>
+        <v>1183.4319526627219</v>
       </c>
       <c r="E86">
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3606,14 +3794,14 @@
         <v>8</v>
       </c>
       <c r="D87" s="2">
-        <f>1/Sheet1!E183*10</f>
-        <v>1000</v>
+        <f>1/(Sheet1!E183*130^2/100)*1000*2</f>
+        <v>1183.4319526627219</v>
       </c>
       <c r="E87">
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3624,14 +3812,14 @@
         <v>9</v>
       </c>
       <c r="D88" s="2">
-        <f>1/Sheet1!E184*10</f>
-        <v>1000</v>
+        <f>1/(Sheet1!E184*130^2/100)*1000*2</f>
+        <v>1183.4319526627219</v>
       </c>
       <c r="E88">
         <v>1000</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3642,8 +3830,8 @@
         <v>9</v>
       </c>
       <c r="D89" s="2">
-        <f>1/Sheet1!E185*10</f>
-        <v>1000</v>
+        <f>1/(Sheet1!E185*130^2/100)*1000*2</f>
+        <v>1183.4319526627219</v>
       </c>
       <c r="E89">
         <v>1000</v>
@@ -3656,22 +3844,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F027225-FF00-46AF-9A5A-D05CF10EA1EE}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:AP23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP23" sqref="AP2:AP23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="32" max="42" width="10.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3688,695 +3877,3789 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>200</v>
       </c>
       <c r="D2" s="3">
-        <f>+C2*1.2</f>
-        <v>240</v>
+        <f>$C2*Sheet1!B$220</f>
+        <v>203.6</v>
       </c>
       <c r="E2" s="3">
-        <f>+C2*1.3</f>
-        <v>260</v>
+        <f>$C2*Sheet1!C$220</f>
+        <v>204.8</v>
       </c>
       <c r="F2" s="3">
-        <f>+C2*1.1</f>
-        <v>220.00000000000003</v>
+        <f>$C2*Sheet1!D$220</f>
+        <v>205.6</v>
       </c>
       <c r="G2" s="3">
-        <f>+D2*1.1</f>
-        <v>264</v>
+        <f>$C2*Sheet1!E$220</f>
+        <v>209.39999999999998</v>
       </c>
       <c r="H2" s="3">
-        <f>+E2*1.1</f>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C2*Sheet1!F$220</f>
+        <v>211.20000000000002</v>
+      </c>
+      <c r="I2" s="3">
+        <f>$C2*Sheet1!G$220</f>
+        <v>214</v>
+      </c>
+      <c r="J2" s="3">
+        <f>$C2*Sheet1!H$220</f>
+        <v>218.6</v>
+      </c>
+      <c r="K2" s="3">
+        <f>$C2*Sheet1!I$220</f>
+        <v>220.2</v>
+      </c>
+      <c r="L2" s="3">
+        <f>$C2*Sheet1!J$220</f>
+        <v>220.2</v>
+      </c>
+      <c r="M2" s="3">
+        <f>$C2*Sheet1!K$220</f>
+        <v>220.6</v>
+      </c>
+      <c r="N2" s="3">
+        <f>$C2*Sheet1!L$220</f>
+        <v>222.6</v>
+      </c>
+      <c r="O2" s="3">
+        <f>$C2*Sheet1!M$220</f>
+        <v>233.6</v>
+      </c>
+      <c r="P2" s="3">
+        <f>$C2*Sheet1!N$220</f>
+        <v>234.60000000000002</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>$C2*Sheet1!O$220</f>
+        <v>234.60000000000002</v>
+      </c>
+      <c r="R2" s="3">
+        <f>$C2*Sheet1!P$220</f>
+        <v>234.79999999999998</v>
+      </c>
+      <c r="S2" s="3">
+        <f>$C2*Sheet1!Q$220</f>
+        <v>238</v>
+      </c>
+      <c r="T2" s="3">
+        <f>$C2*Sheet1!R$220</f>
+        <v>241.4</v>
+      </c>
+      <c r="U2" s="3">
+        <f>$C2*Sheet1!S$220</f>
+        <v>242.20000000000002</v>
+      </c>
+      <c r="V2" s="3">
+        <f>$C2*Sheet1!T$220</f>
+        <v>246</v>
+      </c>
+      <c r="W2" s="3">
+        <f>C2*Sheet1!A$221</f>
+        <v>200.8</v>
+      </c>
+      <c r="X2" s="3">
+        <f>D2*Sheet1!B$221</f>
+        <v>204.4144</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>E2*Sheet1!C$221</f>
+        <v>207.4624</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>F2*Sheet1!D$221</f>
+        <v>210.32879999999997</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>G2*Sheet1!E$221</f>
+        <v>217.98539999999997</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>H2*Sheet1!F$221</f>
+        <v>220.2816</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>I2*Sheet1!G$221</f>
+        <v>224.05799999999999</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>J2*Sheet1!H$221</f>
+        <v>229.09280000000001</v>
+      </c>
+      <c r="AE2" s="3">
+        <f>K2*Sheet1!I$221</f>
+        <v>245.7432</v>
+      </c>
+      <c r="AF2" s="3">
+        <f>L2*Sheet1!J$221</f>
+        <v>247.94519999999997</v>
+      </c>
+      <c r="AG2" s="3">
+        <f>M2*Sheet1!K$221</f>
+        <v>249.49859999999998</v>
+      </c>
+      <c r="AH2" s="3">
+        <f>N2*Sheet1!L$221</f>
+        <v>254.65439999999998</v>
+      </c>
+      <c r="AI2" s="3">
+        <f>O2*Sheet1!M$221</f>
+        <v>269.3408</v>
+      </c>
+      <c r="AJ2" s="3">
+        <f>P2*Sheet1!N$221</f>
+        <v>271.43220000000002</v>
+      </c>
+      <c r="AK2" s="3">
+        <f>Q2*Sheet1!O$221</f>
+        <v>278.70480000000003</v>
+      </c>
+      <c r="AL2" s="3">
+        <f>R2*Sheet1!P$221</f>
+        <v>282.69919999999996</v>
+      </c>
+      <c r="AM2" s="3">
+        <f>S2*Sheet1!Q$221</f>
+        <v>286.55199999999996</v>
+      </c>
+      <c r="AN2" s="3">
+        <f>T2*Sheet1!R$221</f>
+        <v>292.09399999999999</v>
+      </c>
+      <c r="AO2" s="3">
+        <f>U2*Sheet1!S$221</f>
+        <v>293.54640000000001</v>
+      </c>
+      <c r="AP2" s="3">
+        <f>V2*Sheet1!T$221</f>
+        <v>300.858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>300</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D22" si="0">+C3*1.2</f>
-        <v>360</v>
+        <f>$C3*Sheet1!B$220</f>
+        <v>305.39999999999998</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E22" si="1">+C3*1.3</f>
-        <v>390</v>
+        <f>$C3*Sheet1!C$220</f>
+        <v>307.2</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F22" si="2">+C3*1.1</f>
-        <v>330</v>
+        <f>$C3*Sheet1!D$220</f>
+        <v>308.40000000000003</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G22" si="3">+D3*1.1</f>
-        <v>396.00000000000006</v>
+        <f>$C3*Sheet1!E$220</f>
+        <v>314.09999999999997</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H22" si="4">+E3*1.1</f>
-        <v>429.00000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C3*Sheet1!F$220</f>
+        <v>316.8</v>
+      </c>
+      <c r="I3" s="3">
+        <f>$C3*Sheet1!G$220</f>
+        <v>321</v>
+      </c>
+      <c r="J3" s="3">
+        <f>$C3*Sheet1!H$220</f>
+        <v>327.9</v>
+      </c>
+      <c r="K3" s="3">
+        <f>$C3*Sheet1!I$220</f>
+        <v>330.3</v>
+      </c>
+      <c r="L3" s="3">
+        <f>$C3*Sheet1!J$220</f>
+        <v>330.3</v>
+      </c>
+      <c r="M3" s="3">
+        <f>$C3*Sheet1!K$220</f>
+        <v>330.9</v>
+      </c>
+      <c r="N3" s="3">
+        <f>$C3*Sheet1!L$220</f>
+        <v>333.9</v>
+      </c>
+      <c r="O3" s="3">
+        <f>$C3*Sheet1!M$220</f>
+        <v>350.4</v>
+      </c>
+      <c r="P3" s="3">
+        <f>$C3*Sheet1!N$220</f>
+        <v>351.90000000000003</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>$C3*Sheet1!O$220</f>
+        <v>351.90000000000003</v>
+      </c>
+      <c r="R3" s="3">
+        <f>$C3*Sheet1!P$220</f>
+        <v>352.2</v>
+      </c>
+      <c r="S3" s="3">
+        <f>$C3*Sheet1!Q$220</f>
+        <v>357</v>
+      </c>
+      <c r="T3" s="3">
+        <f>$C3*Sheet1!R$220</f>
+        <v>362.1</v>
+      </c>
+      <c r="U3" s="3">
+        <f>$C3*Sheet1!S$220</f>
+        <v>363.3</v>
+      </c>
+      <c r="V3" s="3">
+        <f>$C3*Sheet1!T$220</f>
+        <v>369</v>
+      </c>
+      <c r="W3" s="3">
+        <f>C3*Sheet1!A$221</f>
+        <v>301.2</v>
+      </c>
+      <c r="X3" s="3">
+        <f>D3*Sheet1!B$221</f>
+        <v>306.6216</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>E3*Sheet1!C$221</f>
+        <v>311.19359999999995</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>F3*Sheet1!D$221</f>
+        <v>315.4932</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>G3*Sheet1!E$221</f>
+        <v>326.97809999999993</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>H3*Sheet1!F$221</f>
+        <v>330.42239999999998</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>I3*Sheet1!G$221</f>
+        <v>336.08699999999999</v>
+      </c>
+      <c r="AD3" s="3">
+        <f>J3*Sheet1!H$221</f>
+        <v>343.63920000000002</v>
+      </c>
+      <c r="AE3" s="3">
+        <f>K3*Sheet1!I$221</f>
+        <v>368.61480000000006</v>
+      </c>
+      <c r="AF3" s="3">
+        <f>L3*Sheet1!J$221</f>
+        <v>371.9178</v>
+      </c>
+      <c r="AG3" s="3">
+        <f>M3*Sheet1!K$221</f>
+        <v>374.24789999999996</v>
+      </c>
+      <c r="AH3" s="3">
+        <f>N3*Sheet1!L$221</f>
+        <v>381.98159999999996</v>
+      </c>
+      <c r="AI3" s="3">
+        <f>O3*Sheet1!M$221</f>
+        <v>404.01119999999997</v>
+      </c>
+      <c r="AJ3" s="3">
+        <f>P3*Sheet1!N$221</f>
+        <v>407.14830000000006</v>
+      </c>
+      <c r="AK3" s="3">
+        <f>Q3*Sheet1!O$221</f>
+        <v>418.05720000000002</v>
+      </c>
+      <c r="AL3" s="3">
+        <f>R3*Sheet1!P$221</f>
+        <v>424.04879999999997</v>
+      </c>
+      <c r="AM3" s="3">
+        <f>S3*Sheet1!Q$221</f>
+        <v>429.82799999999997</v>
+      </c>
+      <c r="AN3" s="3">
+        <f>T3*Sheet1!R$221</f>
+        <v>438.14100000000002</v>
+      </c>
+      <c r="AO3" s="3">
+        <f>U3*Sheet1!S$221</f>
+        <v>440.31959999999998</v>
+      </c>
+      <c r="AP3" s="3">
+        <f>V3*Sheet1!T$221</f>
+        <v>451.28700000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>100</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f>$C4*Sheet1!B$220</f>
+        <v>101.8</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f>$C4*Sheet1!C$220</f>
+        <v>102.4</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="2"/>
-        <v>110.00000000000001</v>
+        <f>$C4*Sheet1!D$220</f>
+        <v>102.8</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="3"/>
-        <v>132</v>
+        <f>$C4*Sheet1!E$220</f>
+        <v>104.69999999999999</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="4"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C4*Sheet1!F$220</f>
+        <v>105.60000000000001</v>
+      </c>
+      <c r="I4" s="3">
+        <f>$C4*Sheet1!G$220</f>
+        <v>107</v>
+      </c>
+      <c r="J4" s="3">
+        <f>$C4*Sheet1!H$220</f>
+        <v>109.3</v>
+      </c>
+      <c r="K4" s="3">
+        <f>$C4*Sheet1!I$220</f>
+        <v>110.1</v>
+      </c>
+      <c r="L4" s="3">
+        <f>$C4*Sheet1!J$220</f>
+        <v>110.1</v>
+      </c>
+      <c r="M4" s="3">
+        <f>$C4*Sheet1!K$220</f>
+        <v>110.3</v>
+      </c>
+      <c r="N4" s="3">
+        <f>$C4*Sheet1!L$220</f>
+        <v>111.3</v>
+      </c>
+      <c r="O4" s="3">
+        <f>$C4*Sheet1!M$220</f>
+        <v>116.8</v>
+      </c>
+      <c r="P4" s="3">
+        <f>$C4*Sheet1!N$220</f>
+        <v>117.30000000000001</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>$C4*Sheet1!O$220</f>
+        <v>117.30000000000001</v>
+      </c>
+      <c r="R4" s="3">
+        <f>$C4*Sheet1!P$220</f>
+        <v>117.39999999999999</v>
+      </c>
+      <c r="S4" s="3">
+        <f>$C4*Sheet1!Q$220</f>
+        <v>119</v>
+      </c>
+      <c r="T4" s="3">
+        <f>$C4*Sheet1!R$220</f>
+        <v>120.7</v>
+      </c>
+      <c r="U4" s="3">
+        <f>$C4*Sheet1!S$220</f>
+        <v>121.10000000000001</v>
+      </c>
+      <c r="V4" s="3">
+        <f>$C4*Sheet1!T$220</f>
+        <v>123</v>
+      </c>
+      <c r="W4" s="3">
+        <f>C4*Sheet1!A$221</f>
+        <v>100.4</v>
+      </c>
+      <c r="X4" s="3">
+        <f>D4*Sheet1!B$221</f>
+        <v>102.2072</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>E4*Sheet1!C$221</f>
+        <v>103.7312</v>
+      </c>
+      <c r="Z4" s="3">
+        <f>F4*Sheet1!D$221</f>
+        <v>105.16439999999999</v>
+      </c>
+      <c r="AA4" s="3">
+        <f>G4*Sheet1!E$221</f>
+        <v>108.99269999999999</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>H4*Sheet1!F$221</f>
+        <v>110.1408</v>
+      </c>
+      <c r="AC4" s="3">
+        <f>I4*Sheet1!G$221</f>
+        <v>112.029</v>
+      </c>
+      <c r="AD4" s="3">
+        <f>J4*Sheet1!H$221</f>
+        <v>114.54640000000001</v>
+      </c>
+      <c r="AE4" s="3">
+        <f>K4*Sheet1!I$221</f>
+        <v>122.8716</v>
+      </c>
+      <c r="AF4" s="3">
+        <f>L4*Sheet1!J$221</f>
+        <v>123.97259999999999</v>
+      </c>
+      <c r="AG4" s="3">
+        <f>M4*Sheet1!K$221</f>
+        <v>124.74929999999999</v>
+      </c>
+      <c r="AH4" s="3">
+        <f>N4*Sheet1!L$221</f>
+        <v>127.32719999999999</v>
+      </c>
+      <c r="AI4" s="3">
+        <f>O4*Sheet1!M$221</f>
+        <v>134.6704</v>
+      </c>
+      <c r="AJ4" s="3">
+        <f>P4*Sheet1!N$221</f>
+        <v>135.71610000000001</v>
+      </c>
+      <c r="AK4" s="3">
+        <f>Q4*Sheet1!O$221</f>
+        <v>139.35240000000002</v>
+      </c>
+      <c r="AL4" s="3">
+        <f>R4*Sheet1!P$221</f>
+        <v>141.34959999999998</v>
+      </c>
+      <c r="AM4" s="3">
+        <f>S4*Sheet1!Q$221</f>
+        <v>143.27599999999998</v>
+      </c>
+      <c r="AN4" s="3">
+        <f>T4*Sheet1!R$221</f>
+        <v>146.047</v>
+      </c>
+      <c r="AO4" s="3">
+        <f>U4*Sheet1!S$221</f>
+        <v>146.7732</v>
+      </c>
+      <c r="AP4" s="3">
+        <f>V4*Sheet1!T$221</f>
+        <v>150.429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>280</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>336</v>
+        <f>$C5*Sheet1!B$220</f>
+        <v>285.04000000000002</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
-        <v>364</v>
+        <f>$C5*Sheet1!C$220</f>
+        <v>286.72000000000003</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
-        <v>308</v>
+        <f>$C5*Sheet1!D$220</f>
+        <v>287.84000000000003</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="3"/>
-        <v>369.6</v>
+        <f>$C5*Sheet1!E$220</f>
+        <v>293.15999999999997</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="4"/>
-        <v>400.40000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C5*Sheet1!F$220</f>
+        <v>295.68</v>
+      </c>
+      <c r="I5" s="3">
+        <f>$C5*Sheet1!G$220</f>
+        <v>299.60000000000002</v>
+      </c>
+      <c r="J5" s="3">
+        <f>$C5*Sheet1!H$220</f>
+        <v>306.03999999999996</v>
+      </c>
+      <c r="K5" s="3">
+        <f>$C5*Sheet1!I$220</f>
+        <v>308.27999999999997</v>
+      </c>
+      <c r="L5" s="3">
+        <f>$C5*Sheet1!J$220</f>
+        <v>308.27999999999997</v>
+      </c>
+      <c r="M5" s="3">
+        <f>$C5*Sheet1!K$220</f>
+        <v>308.83999999999997</v>
+      </c>
+      <c r="N5" s="3">
+        <f>$C5*Sheet1!L$220</f>
+        <v>311.64</v>
+      </c>
+      <c r="O5" s="3">
+        <f>$C5*Sheet1!M$220</f>
+        <v>327.03999999999996</v>
+      </c>
+      <c r="P5" s="3">
+        <f>$C5*Sheet1!N$220</f>
+        <v>328.44</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>$C5*Sheet1!O$220</f>
+        <v>328.44</v>
+      </c>
+      <c r="R5" s="3">
+        <f>$C5*Sheet1!P$220</f>
+        <v>328.71999999999997</v>
+      </c>
+      <c r="S5" s="3">
+        <f>$C5*Sheet1!Q$220</f>
+        <v>333.2</v>
+      </c>
+      <c r="T5" s="3">
+        <f>$C5*Sheet1!R$220</f>
+        <v>337.96000000000004</v>
+      </c>
+      <c r="U5" s="3">
+        <f>$C5*Sheet1!S$220</f>
+        <v>339.08000000000004</v>
+      </c>
+      <c r="V5" s="3">
+        <f>$C5*Sheet1!T$220</f>
+        <v>344.4</v>
+      </c>
+      <c r="W5" s="3">
+        <f>C5*Sheet1!A$221</f>
+        <v>281.12</v>
+      </c>
+      <c r="X5" s="3">
+        <f>D5*Sheet1!B$221</f>
+        <v>286.18016</v>
+      </c>
+      <c r="Y5" s="3">
+        <f>E5*Sheet1!C$221</f>
+        <v>290.44736</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>F5*Sheet1!D$221</f>
+        <v>294.46032000000002</v>
+      </c>
+      <c r="AA5" s="3">
+        <f>G5*Sheet1!E$221</f>
+        <v>305.17955999999992</v>
+      </c>
+      <c r="AB5" s="3">
+        <f>H5*Sheet1!F$221</f>
+        <v>308.39423999999997</v>
+      </c>
+      <c r="AC5" s="3">
+        <f>I5*Sheet1!G$221</f>
+        <v>313.68119999999999</v>
+      </c>
+      <c r="AD5" s="3">
+        <f>J5*Sheet1!H$221</f>
+        <v>320.72991999999999</v>
+      </c>
+      <c r="AE5" s="3">
+        <f>K5*Sheet1!I$221</f>
+        <v>344.04048</v>
+      </c>
+      <c r="AF5" s="3">
+        <f>L5*Sheet1!J$221</f>
+        <v>347.12327999999991</v>
+      </c>
+      <c r="AG5" s="3">
+        <f>M5*Sheet1!K$221</f>
+        <v>349.29803999999996</v>
+      </c>
+      <c r="AH5" s="3">
+        <f>N5*Sheet1!L$221</f>
+        <v>356.51615999999996</v>
+      </c>
+      <c r="AI5" s="3">
+        <f>O5*Sheet1!M$221</f>
+        <v>377.07711999999998</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f>P5*Sheet1!N$221</f>
+        <v>380.00508000000002</v>
+      </c>
+      <c r="AK5" s="3">
+        <f>Q5*Sheet1!O$221</f>
+        <v>390.18671999999998</v>
+      </c>
+      <c r="AL5" s="3">
+        <f>R5*Sheet1!P$221</f>
+        <v>395.77887999999996</v>
+      </c>
+      <c r="AM5" s="3">
+        <f>S5*Sheet1!Q$221</f>
+        <v>401.1728</v>
+      </c>
+      <c r="AN5" s="3">
+        <f>T5*Sheet1!R$221</f>
+        <v>408.93160000000006</v>
+      </c>
+      <c r="AO5" s="3">
+        <f>U5*Sheet1!S$221</f>
+        <v>410.96496000000002</v>
+      </c>
+      <c r="AP5" s="3">
+        <f>V5*Sheet1!T$221</f>
+        <v>421.20120000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>402.21980000000002</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>482.66376000000002</v>
+        <f>$C6*Sheet1!B$220</f>
+        <v>409.4597564</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="1"/>
-        <v>522.88574000000006</v>
+        <f>$C6*Sheet1!C$220</f>
+        <v>411.87307520000002</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="2"/>
-        <v>442.44178000000005</v>
+        <f>$C6*Sheet1!D$220</f>
+        <v>413.48195440000001</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="3"/>
-        <v>530.93013600000006</v>
+        <f>$C6*Sheet1!E$220</f>
+        <v>421.1241306</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="4"/>
-        <v>575.17431400000009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C6*Sheet1!F$220</f>
+        <v>424.74410880000005</v>
+      </c>
+      <c r="I6" s="3">
+        <f>$C6*Sheet1!G$220</f>
+        <v>430.37518600000004</v>
+      </c>
+      <c r="J6" s="3">
+        <f>$C6*Sheet1!H$220</f>
+        <v>439.62624140000003</v>
+      </c>
+      <c r="K6" s="3">
+        <f>$C6*Sheet1!I$220</f>
+        <v>442.84399980000001</v>
+      </c>
+      <c r="L6" s="3">
+        <f>$C6*Sheet1!J$220</f>
+        <v>442.84399980000001</v>
+      </c>
+      <c r="M6" s="3">
+        <f>$C6*Sheet1!K$220</f>
+        <v>443.64843940000003</v>
+      </c>
+      <c r="N6" s="3">
+        <f>$C6*Sheet1!L$220</f>
+        <v>447.67063740000003</v>
+      </c>
+      <c r="O6" s="3">
+        <f>$C6*Sheet1!M$220</f>
+        <v>469.79272639999999</v>
+      </c>
+      <c r="P6" s="3">
+        <f>$C6*Sheet1!N$220</f>
+        <v>471.80382540000005</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>$C6*Sheet1!O$220</f>
+        <v>471.80382540000005</v>
+      </c>
+      <c r="R6" s="3">
+        <f>$C6*Sheet1!P$220</f>
+        <v>472.20604520000001</v>
+      </c>
+      <c r="S6" s="3">
+        <f>$C6*Sheet1!Q$220</f>
+        <v>478.64156200000002</v>
+      </c>
+      <c r="T6" s="3">
+        <f>$C6*Sheet1!R$220</f>
+        <v>485.47929860000005</v>
+      </c>
+      <c r="U6" s="3">
+        <f>$C6*Sheet1!S$220</f>
+        <v>487.08817780000004</v>
+      </c>
+      <c r="V6" s="3">
+        <f>$C6*Sheet1!T$220</f>
+        <v>494.73035400000003</v>
+      </c>
+      <c r="W6" s="3">
+        <f>C6*Sheet1!A$221</f>
+        <v>403.82867920000001</v>
+      </c>
+      <c r="X6" s="3">
+        <f>D6*Sheet1!B$221</f>
+        <v>411.09759542559999</v>
+      </c>
+      <c r="Y6" s="3">
+        <f>E6*Sheet1!C$221</f>
+        <v>417.22742517759997</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>F6*Sheet1!D$221</f>
+        <v>422.99203935119999</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>G6*Sheet1!E$221</f>
+        <v>438.39021995459996</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>H6*Sheet1!F$221</f>
+        <v>443.00810547840001</v>
+      </c>
+      <c r="AC6" s="3">
+        <f>I6*Sheet1!G$221</f>
+        <v>450.60281974200001</v>
+      </c>
+      <c r="AD6" s="3">
+        <f>J6*Sheet1!H$221</f>
+        <v>460.72830098720004</v>
+      </c>
+      <c r="AE6" s="3">
+        <f>K6*Sheet1!I$221</f>
+        <v>494.21390377680007</v>
+      </c>
+      <c r="AF6" s="3">
+        <f>L6*Sheet1!J$221</f>
+        <v>498.64234377479994</v>
+      </c>
+      <c r="AG6" s="3">
+        <f>M6*Sheet1!K$221</f>
+        <v>501.76638496140004</v>
+      </c>
+      <c r="AH6" s="3">
+        <f>N6*Sheet1!L$221</f>
+        <v>512.13520918560005</v>
+      </c>
+      <c r="AI6" s="3">
+        <f>O6*Sheet1!M$221</f>
+        <v>541.67101353919998</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f>P6*Sheet1!N$221</f>
+        <v>545.87702598780004</v>
+      </c>
+      <c r="AK6" s="3">
+        <f>Q6*Sheet1!O$221</f>
+        <v>560.50294457519999</v>
+      </c>
+      <c r="AL6" s="3">
+        <f>R6*Sheet1!P$221</f>
+        <v>568.53607842079998</v>
+      </c>
+      <c r="AM6" s="3">
+        <f>S6*Sheet1!Q$221</f>
+        <v>576.28444064799999</v>
+      </c>
+      <c r="AN6" s="3">
+        <f>T6*Sheet1!R$221</f>
+        <v>587.42995130600002</v>
+      </c>
+      <c r="AO6" s="3">
+        <f>U6*Sheet1!S$221</f>
+        <v>590.35087149360004</v>
+      </c>
+      <c r="AP6" s="3">
+        <f>V6*Sheet1!T$221</f>
+        <v>605.05522294200011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>201.2099</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>241.45187999999999</v>
+        <f>$C7*Sheet1!B$220</f>
+        <v>204.8316782</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="1"/>
-        <v>261.57287000000002</v>
+        <f>$C7*Sheet1!C$220</f>
+        <v>206.0389376</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="2"/>
-        <v>221.33089000000001</v>
+        <f>$C7*Sheet1!D$220</f>
+        <v>206.84377720000001</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="3"/>
-        <v>265.59706800000004</v>
+        <f>$C7*Sheet1!E$220</f>
+        <v>210.66676529999998</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="4"/>
-        <v>287.73015700000008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C7*Sheet1!F$220</f>
+        <v>212.47765440000001</v>
+      </c>
+      <c r="I7" s="3">
+        <f>$C7*Sheet1!G$220</f>
+        <v>215.29459300000002</v>
+      </c>
+      <c r="J7" s="3">
+        <f>$C7*Sheet1!H$220</f>
+        <v>219.9224207</v>
+      </c>
+      <c r="K7" s="3">
+        <f>$C7*Sheet1!I$220</f>
+        <v>221.53209989999999</v>
+      </c>
+      <c r="L7" s="3">
+        <f>$C7*Sheet1!J$220</f>
+        <v>221.53209989999999</v>
+      </c>
+      <c r="M7" s="3">
+        <f>$C7*Sheet1!K$220</f>
+        <v>221.93451970000001</v>
+      </c>
+      <c r="N7" s="3">
+        <f>$C7*Sheet1!L$220</f>
+        <v>223.94661870000002</v>
+      </c>
+      <c r="O7" s="3">
+        <f>$C7*Sheet1!M$220</f>
+        <v>235.01316319999998</v>
+      </c>
+      <c r="P7" s="3">
+        <f>$C7*Sheet1!N$220</f>
+        <v>236.01921270000003</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>$C7*Sheet1!O$220</f>
+        <v>236.01921270000003</v>
+      </c>
+      <c r="R7" s="3">
+        <f>$C7*Sheet1!P$220</f>
+        <v>236.22042259999998</v>
+      </c>
+      <c r="S7" s="3">
+        <f>$C7*Sheet1!Q$220</f>
+        <v>239.43978099999998</v>
+      </c>
+      <c r="T7" s="3">
+        <f>$C7*Sheet1!R$220</f>
+        <v>242.86034930000002</v>
+      </c>
+      <c r="U7" s="3">
+        <f>$C7*Sheet1!S$220</f>
+        <v>243.66518890000003</v>
+      </c>
+      <c r="V7" s="3">
+        <f>$C7*Sheet1!T$220</f>
+        <v>247.48817700000001</v>
+      </c>
+      <c r="W7" s="3">
+        <f>C7*Sheet1!A$221</f>
+        <v>202.01473960000001</v>
+      </c>
+      <c r="X7" s="3">
+        <f>D7*Sheet1!B$221</f>
+        <v>205.6510049128</v>
+      </c>
+      <c r="Y7" s="3">
+        <f>E7*Sheet1!C$221</f>
+        <v>208.71744378879998</v>
+      </c>
+      <c r="Z7" s="3">
+        <f>F7*Sheet1!D$221</f>
+        <v>211.60118407559997</v>
+      </c>
+      <c r="AA7" s="3">
+        <f>G7*Sheet1!E$221</f>
+        <v>219.30410267729997</v>
+      </c>
+      <c r="AB7" s="3">
+        <f>H7*Sheet1!F$221</f>
+        <v>221.61419353919999</v>
+      </c>
+      <c r="AC7" s="3">
+        <f>I7*Sheet1!G$221</f>
+        <v>225.41343887100001</v>
+      </c>
+      <c r="AD7" s="3">
+        <f>J7*Sheet1!H$221</f>
+        <v>230.47869689360002</v>
+      </c>
+      <c r="AE7" s="3">
+        <f>K7*Sheet1!I$221</f>
+        <v>247.2298234884</v>
+      </c>
+      <c r="AF7" s="3">
+        <f>L7*Sheet1!J$221</f>
+        <v>249.44514448739997</v>
+      </c>
+      <c r="AG7" s="3">
+        <f>M7*Sheet1!K$221</f>
+        <v>251.00794178070001</v>
+      </c>
+      <c r="AH7" s="3">
+        <f>N7*Sheet1!L$221</f>
+        <v>256.19493179279999</v>
+      </c>
+      <c r="AI7" s="3">
+        <f>O7*Sheet1!M$221</f>
+        <v>270.97017716959999</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f>P7*Sheet1!N$221</f>
+        <v>273.07422909390004</v>
+      </c>
+      <c r="AK7" s="3">
+        <f>Q7*Sheet1!O$221</f>
+        <v>280.3908246876</v>
+      </c>
+      <c r="AL7" s="3">
+        <f>R7*Sheet1!P$221</f>
+        <v>284.40938881039995</v>
+      </c>
+      <c r="AM7" s="3">
+        <f>S7*Sheet1!Q$221</f>
+        <v>288.28549632399995</v>
+      </c>
+      <c r="AN7" s="3">
+        <f>T7*Sheet1!R$221</f>
+        <v>293.86102265300002</v>
+      </c>
+      <c r="AO7" s="3">
+        <f>U7*Sheet1!S$221</f>
+        <v>295.3222089468</v>
+      </c>
+      <c r="AP7" s="3">
+        <f>V7*Sheet1!T$221</f>
+        <v>302.67804047100003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>154.20760000000001</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>185.04912000000002</v>
+        <f>$C8*Sheet1!B$220</f>
+        <v>156.98333680000002</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
-        <v>200.46988000000002</v>
+        <f>$C8*Sheet1!C$220</f>
+        <v>157.90858240000003</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
-        <v>169.62836000000001</v>
+        <f>$C8*Sheet1!D$220</f>
+        <v>158.52541280000003</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="3"/>
-        <v>203.55403200000003</v>
+        <f>$C8*Sheet1!E$220</f>
+        <v>161.45535720000001</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="4"/>
-        <v>220.51686800000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C8*Sheet1!F$220</f>
+        <v>162.84322560000001</v>
+      </c>
+      <c r="I8" s="3">
+        <f>$C8*Sheet1!G$220</f>
+        <v>165.00213200000002</v>
+      </c>
+      <c r="J8" s="3">
+        <f>$C8*Sheet1!H$220</f>
+        <v>168.5489068</v>
+      </c>
+      <c r="K8" s="3">
+        <f>$C8*Sheet1!I$220</f>
+        <v>169.78256760000002</v>
+      </c>
+      <c r="L8" s="3">
+        <f>$C8*Sheet1!J$220</f>
+        <v>169.78256760000002</v>
+      </c>
+      <c r="M8" s="3">
+        <f>$C8*Sheet1!K$220</f>
+        <v>170.09098280000001</v>
+      </c>
+      <c r="N8" s="3">
+        <f>$C8*Sheet1!L$220</f>
+        <v>171.63305880000001</v>
+      </c>
+      <c r="O8" s="3">
+        <f>$C8*Sheet1!M$220</f>
+        <v>180.11447680000001</v>
+      </c>
+      <c r="P8" s="3">
+        <f>$C8*Sheet1!N$220</f>
+        <v>180.88551480000001</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>$C8*Sheet1!O$220</f>
+        <v>180.88551480000001</v>
+      </c>
+      <c r="R8" s="3">
+        <f>$C8*Sheet1!P$220</f>
+        <v>181.03972240000002</v>
+      </c>
+      <c r="S8" s="3">
+        <f>$C8*Sheet1!Q$220</f>
+        <v>183.50704400000001</v>
+      </c>
+      <c r="T8" s="3">
+        <f>$C8*Sheet1!R$220</f>
+        <v>186.12857320000003</v>
+      </c>
+      <c r="U8" s="3">
+        <f>$C8*Sheet1!S$220</f>
+        <v>186.74540360000003</v>
+      </c>
+      <c r="V8" s="3">
+        <f>$C8*Sheet1!T$220</f>
+        <v>189.67534800000001</v>
+      </c>
+      <c r="W8" s="3">
+        <f>C8*Sheet1!A$221</f>
+        <v>154.82443040000001</v>
+      </c>
+      <c r="X8" s="3">
+        <f>D8*Sheet1!B$221</f>
+        <v>157.61127014720003</v>
+      </c>
+      <c r="Y8" s="3">
+        <f>E8*Sheet1!C$221</f>
+        <v>159.96139397120001</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>F8*Sheet1!D$221</f>
+        <v>162.17149729440001</v>
+      </c>
+      <c r="AA8" s="3">
+        <f>G8*Sheet1!E$221</f>
+        <v>168.0750268452</v>
+      </c>
+      <c r="AB8" s="3">
+        <f>H8*Sheet1!F$221</f>
+        <v>169.8454843008</v>
+      </c>
+      <c r="AC8" s="3">
+        <f>I8*Sheet1!G$221</f>
+        <v>172.75723220400002</v>
+      </c>
+      <c r="AD8" s="3">
+        <f>J8*Sheet1!H$221</f>
+        <v>176.63925432639999</v>
+      </c>
+      <c r="AE8" s="3">
+        <f>K8*Sheet1!I$221</f>
+        <v>189.47734544160005</v>
+      </c>
+      <c r="AF8" s="3">
+        <f>L8*Sheet1!J$221</f>
+        <v>191.1751711176</v>
+      </c>
+      <c r="AG8" s="3">
+        <f>M8*Sheet1!K$221</f>
+        <v>192.37290154679999</v>
+      </c>
+      <c r="AH8" s="3">
+        <f>N8*Sheet1!L$221</f>
+        <v>196.34821926719999</v>
+      </c>
+      <c r="AI8" s="3">
+        <f>O8*Sheet1!M$221</f>
+        <v>207.67199175040003</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f>P8*Sheet1!N$221</f>
+        <v>209.28454062360001</v>
+      </c>
+      <c r="AK8" s="3">
+        <f>Q8*Sheet1!O$221</f>
+        <v>214.89199158240001</v>
+      </c>
+      <c r="AL8" s="3">
+        <f>R8*Sheet1!P$221</f>
+        <v>217.9718257696</v>
+      </c>
+      <c r="AM8" s="3">
+        <f>S8*Sheet1!Q$221</f>
+        <v>220.94248097600001</v>
+      </c>
+      <c r="AN8" s="3">
+        <f>T8*Sheet1!R$221</f>
+        <v>225.21557357200004</v>
+      </c>
+      <c r="AO8" s="3">
+        <f>U8*Sheet1!S$221</f>
+        <v>226.33542916320002</v>
+      </c>
+      <c r="AP8" s="3">
+        <f>V8*Sheet1!T$221</f>
+        <v>231.97295060400003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>536.42629999999997</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>643.71155999999996</v>
+        <f>$C9*Sheet1!B$220</f>
+        <v>546.08197339999992</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="1"/>
-        <v>697.35419000000002</v>
+        <f>$C9*Sheet1!C$220</f>
+        <v>549.30053120000002</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="2"/>
-        <v>590.06893000000002</v>
+        <f>$C9*Sheet1!D$220</f>
+        <v>551.44623639999998</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="3"/>
-        <v>708.082716</v>
+        <f>$C9*Sheet1!E$220</f>
+        <v>561.63833609999995</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="4"/>
-        <v>767.08960900000011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C9*Sheet1!F$220</f>
+        <v>566.46617279999998</v>
+      </c>
+      <c r="I9" s="3">
+        <f>$C9*Sheet1!G$220</f>
+        <v>573.97614099999998</v>
+      </c>
+      <c r="J9" s="3">
+        <f>$C9*Sheet1!H$220</f>
+        <v>586.31394589999991</v>
+      </c>
+      <c r="K9" s="3">
+        <f>$C9*Sheet1!I$220</f>
+        <v>590.60535629999993</v>
+      </c>
+      <c r="L9" s="3">
+        <f>$C9*Sheet1!J$220</f>
+        <v>590.60535629999993</v>
+      </c>
+      <c r="M9" s="3">
+        <f>$C9*Sheet1!K$220</f>
+        <v>591.67820889999996</v>
+      </c>
+      <c r="N9" s="3">
+        <f>$C9*Sheet1!L$220</f>
+        <v>597.04247190000001</v>
+      </c>
+      <c r="O9" s="3">
+        <f>$C9*Sheet1!M$220</f>
+        <v>626.54591839999989</v>
+      </c>
+      <c r="P9" s="3">
+        <f>$C9*Sheet1!N$220</f>
+        <v>629.22804989999997</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>$C9*Sheet1!O$220</f>
+        <v>629.22804989999997</v>
+      </c>
+      <c r="R9" s="3">
+        <f>$C9*Sheet1!P$220</f>
+        <v>629.76447619999988</v>
+      </c>
+      <c r="S9" s="3">
+        <f>$C9*Sheet1!Q$220</f>
+        <v>638.34729699999991</v>
+      </c>
+      <c r="T9" s="3">
+        <f>$C9*Sheet1!R$220</f>
+        <v>647.46654409999996</v>
+      </c>
+      <c r="U9" s="3">
+        <f>$C9*Sheet1!S$220</f>
+        <v>649.61224930000003</v>
+      </c>
+      <c r="V9" s="3">
+        <f>$C9*Sheet1!T$220</f>
+        <v>659.804349</v>
+      </c>
+      <c r="W9" s="3">
+        <f>C9*Sheet1!A$221</f>
+        <v>538.57200519999992</v>
+      </c>
+      <c r="X9" s="3">
+        <f>D9*Sheet1!B$221</f>
+        <v>548.26630129359989</v>
+      </c>
+      <c r="Y9" s="3">
+        <f>E9*Sheet1!C$221</f>
+        <v>556.44143810560001</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>F9*Sheet1!D$221</f>
+        <v>564.12949983719989</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>G9*Sheet1!E$221</f>
+        <v>584.66550788009988</v>
+      </c>
+      <c r="AB9" s="3">
+        <f>H9*Sheet1!F$221</f>
+        <v>590.82421823039999</v>
+      </c>
+      <c r="AC9" s="3">
+        <f>I9*Sheet1!G$221</f>
+        <v>600.95301962699989</v>
+      </c>
+      <c r="AD9" s="3">
+        <f>J9*Sheet1!H$221</f>
+        <v>614.45701530319991</v>
+      </c>
+      <c r="AE9" s="3">
+        <f>K9*Sheet1!I$221</f>
+        <v>659.11557763079998</v>
+      </c>
+      <c r="AF9" s="3">
+        <f>L9*Sheet1!J$221</f>
+        <v>665.02163119379986</v>
+      </c>
+      <c r="AG9" s="3">
+        <f>M9*Sheet1!K$221</f>
+        <v>669.18805426589995</v>
+      </c>
+      <c r="AH9" s="3">
+        <f>N9*Sheet1!L$221</f>
+        <v>683.01658785359996</v>
+      </c>
+      <c r="AI9" s="3">
+        <f>O9*Sheet1!M$221</f>
+        <v>722.40744391519991</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f>P9*Sheet1!N$221</f>
+        <v>728.01685373429996</v>
+      </c>
+      <c r="AK9" s="3">
+        <f>Q9*Sheet1!O$221</f>
+        <v>747.52292328119995</v>
+      </c>
+      <c r="AL9" s="3">
+        <f>R9*Sheet1!P$221</f>
+        <v>758.23642934479983</v>
+      </c>
+      <c r="AM9" s="3">
+        <f>S9*Sheet1!Q$221</f>
+        <v>768.57014558799983</v>
+      </c>
+      <c r="AN9" s="3">
+        <f>T9*Sheet1!R$221</f>
+        <v>783.43451836099996</v>
+      </c>
+      <c r="AO9" s="3">
+        <f>U9*Sheet1!S$221</f>
+        <v>787.33004615159996</v>
+      </c>
+      <c r="AP9" s="3">
+        <f>V9*Sheet1!T$221</f>
+        <v>806.94071882700007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>469.42309999999998</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>563.3077199999999</v>
+        <f>$C10*Sheet1!B$220</f>
+        <v>477.87271579999998</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>610.25003000000004</v>
+        <f>$C10*Sheet1!C$220</f>
+        <v>480.68925439999998</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="2"/>
-        <v>516.36541</v>
+        <f>$C10*Sheet1!D$220</f>
+        <v>482.56694679999998</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="3"/>
-        <v>619.63849199999993</v>
+        <f>$C10*Sheet1!E$220</f>
+        <v>491.48598569999996</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="4"/>
-        <v>671.27503300000012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C10*Sheet1!F$220</f>
+        <v>495.71079359999999</v>
+      </c>
+      <c r="I10" s="3">
+        <f>$C10*Sheet1!G$220</f>
+        <v>502.28271699999999</v>
+      </c>
+      <c r="J10" s="3">
+        <f>$C10*Sheet1!H$220</f>
+        <v>513.07944829999997</v>
+      </c>
+      <c r="K10" s="3">
+        <f>$C10*Sheet1!I$220</f>
+        <v>516.83483309999997</v>
+      </c>
+      <c r="L10" s="3">
+        <f>$C10*Sheet1!J$220</f>
+        <v>516.83483309999997</v>
+      </c>
+      <c r="M10" s="3">
+        <f>$C10*Sheet1!K$220</f>
+        <v>517.77367929999991</v>
+      </c>
+      <c r="N10" s="3">
+        <f>$C10*Sheet1!L$220</f>
+        <v>522.46791029999997</v>
+      </c>
+      <c r="O10" s="3">
+        <f>$C10*Sheet1!M$220</f>
+        <v>548.2861807999999</v>
+      </c>
+      <c r="P10" s="3">
+        <f>$C10*Sheet1!N$220</f>
+        <v>550.63329629999998</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>$C10*Sheet1!O$220</f>
+        <v>550.63329629999998</v>
+      </c>
+      <c r="R10" s="3">
+        <f>$C10*Sheet1!P$220</f>
+        <v>551.10271939999996</v>
+      </c>
+      <c r="S10" s="3">
+        <f>$C10*Sheet1!Q$220</f>
+        <v>558.61348899999996</v>
+      </c>
+      <c r="T10" s="3">
+        <f>$C10*Sheet1!R$220</f>
+        <v>566.59368170000005</v>
+      </c>
+      <c r="U10" s="3">
+        <f>$C10*Sheet1!S$220</f>
+        <v>568.47137410000005</v>
+      </c>
+      <c r="V10" s="3">
+        <f>$C10*Sheet1!T$220</f>
+        <v>577.39041299999997</v>
+      </c>
+      <c r="W10" s="3">
+        <f>C10*Sheet1!A$221</f>
+        <v>471.30079239999998</v>
+      </c>
+      <c r="X10" s="3">
+        <f>D10*Sheet1!B$221</f>
+        <v>479.7842066632</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>E10*Sheet1!C$221</f>
+        <v>486.93821470719996</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>F10*Sheet1!D$221</f>
+        <v>493.66598657639992</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>G10*Sheet1!E$221</f>
+        <v>511.63691111369991</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>H10*Sheet1!F$221</f>
+        <v>517.02635772479994</v>
+      </c>
+      <c r="AC10" s="3">
+        <f>I10*Sheet1!G$221</f>
+        <v>525.89000469899997</v>
+      </c>
+      <c r="AD10" s="3">
+        <f>J10*Sheet1!H$221</f>
+        <v>537.70726181839996</v>
+      </c>
+      <c r="AE10" s="3">
+        <f>K10*Sheet1!I$221</f>
+        <v>576.7876737396</v>
+      </c>
+      <c r="AF10" s="3">
+        <f>L10*Sheet1!J$221</f>
+        <v>581.95602207059994</v>
+      </c>
+      <c r="AG10" s="3">
+        <f>M10*Sheet1!K$221</f>
+        <v>585.60203128829994</v>
+      </c>
+      <c r="AH10" s="3">
+        <f>N10*Sheet1!L$221</f>
+        <v>597.70328938319994</v>
+      </c>
+      <c r="AI10" s="3">
+        <f>O10*Sheet1!M$221</f>
+        <v>632.1739664623999</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f>P10*Sheet1!N$221</f>
+        <v>637.08272381910001</v>
+      </c>
+      <c r="AK10" s="3">
+        <f>Q10*Sheet1!O$221</f>
+        <v>654.15235600439996</v>
+      </c>
+      <c r="AL10" s="3">
+        <f>R10*Sheet1!P$221</f>
+        <v>663.5276741575999</v>
+      </c>
+      <c r="AM10" s="3">
+        <f>S10*Sheet1!Q$221</f>
+        <v>672.57064075599988</v>
+      </c>
+      <c r="AN10" s="3">
+        <f>T10*Sheet1!R$221</f>
+        <v>685.57835485700002</v>
+      </c>
+      <c r="AO10" s="3">
+        <f>U10*Sheet1!S$221</f>
+        <v>688.98730540920008</v>
+      </c>
+      <c r="AP10" s="3">
+        <f>V10*Sheet1!T$221</f>
+        <v>706.14847509900005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>100</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f>$C11*Sheet1!B$220</f>
+        <v>101.8</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f>$C11*Sheet1!C$220</f>
+        <v>102.4</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
-        <v>110.00000000000001</v>
+        <f>$C11*Sheet1!D$220</f>
+        <v>102.8</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="3"/>
-        <v>132</v>
+        <f>$C11*Sheet1!E$220</f>
+        <v>104.69999999999999</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="4"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C11*Sheet1!F$220</f>
+        <v>105.60000000000001</v>
+      </c>
+      <c r="I11" s="3">
+        <f>$C11*Sheet1!G$220</f>
+        <v>107</v>
+      </c>
+      <c r="J11" s="3">
+        <f>$C11*Sheet1!H$220</f>
+        <v>109.3</v>
+      </c>
+      <c r="K11" s="3">
+        <f>$C11*Sheet1!I$220</f>
+        <v>110.1</v>
+      </c>
+      <c r="L11" s="3">
+        <f>$C11*Sheet1!J$220</f>
+        <v>110.1</v>
+      </c>
+      <c r="M11" s="3">
+        <f>$C11*Sheet1!K$220</f>
+        <v>110.3</v>
+      </c>
+      <c r="N11" s="3">
+        <f>$C11*Sheet1!L$220</f>
+        <v>111.3</v>
+      </c>
+      <c r="O11" s="3">
+        <f>$C11*Sheet1!M$220</f>
+        <v>116.8</v>
+      </c>
+      <c r="P11" s="3">
+        <f>$C11*Sheet1!N$220</f>
+        <v>117.30000000000001</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>$C11*Sheet1!O$220</f>
+        <v>117.30000000000001</v>
+      </c>
+      <c r="R11" s="3">
+        <f>$C11*Sheet1!P$220</f>
+        <v>117.39999999999999</v>
+      </c>
+      <c r="S11" s="3">
+        <f>$C11*Sheet1!Q$220</f>
+        <v>119</v>
+      </c>
+      <c r="T11" s="3">
+        <f>$C11*Sheet1!R$220</f>
+        <v>120.7</v>
+      </c>
+      <c r="U11" s="3">
+        <f>$C11*Sheet1!S$220</f>
+        <v>121.10000000000001</v>
+      </c>
+      <c r="V11" s="3">
+        <f>$C11*Sheet1!T$220</f>
+        <v>123</v>
+      </c>
+      <c r="W11" s="3">
+        <f>C11*Sheet1!A$221</f>
+        <v>100.4</v>
+      </c>
+      <c r="X11" s="3">
+        <f>D11*Sheet1!B$221</f>
+        <v>102.2072</v>
+      </c>
+      <c r="Y11" s="3">
+        <f>E11*Sheet1!C$221</f>
+        <v>103.7312</v>
+      </c>
+      <c r="Z11" s="3">
+        <f>F11*Sheet1!D$221</f>
+        <v>105.16439999999999</v>
+      </c>
+      <c r="AA11" s="3">
+        <f>G11*Sheet1!E$221</f>
+        <v>108.99269999999999</v>
+      </c>
+      <c r="AB11" s="3">
+        <f>H11*Sheet1!F$221</f>
+        <v>110.1408</v>
+      </c>
+      <c r="AC11" s="3">
+        <f>I11*Sheet1!G$221</f>
+        <v>112.029</v>
+      </c>
+      <c r="AD11" s="3">
+        <f>J11*Sheet1!H$221</f>
+        <v>114.54640000000001</v>
+      </c>
+      <c r="AE11" s="3">
+        <f>K11*Sheet1!I$221</f>
+        <v>122.8716</v>
+      </c>
+      <c r="AF11" s="3">
+        <f>L11*Sheet1!J$221</f>
+        <v>123.97259999999999</v>
+      </c>
+      <c r="AG11" s="3">
+        <f>M11*Sheet1!K$221</f>
+        <v>124.74929999999999</v>
+      </c>
+      <c r="AH11" s="3">
+        <f>N11*Sheet1!L$221</f>
+        <v>127.32719999999999</v>
+      </c>
+      <c r="AI11" s="3">
+        <f>O11*Sheet1!M$221</f>
+        <v>134.6704</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f>P11*Sheet1!N$221</f>
+        <v>135.71610000000001</v>
+      </c>
+      <c r="AK11" s="3">
+        <f>Q11*Sheet1!O$221</f>
+        <v>139.35240000000002</v>
+      </c>
+      <c r="AL11" s="3">
+        <f>R11*Sheet1!P$221</f>
+        <v>141.34959999999998</v>
+      </c>
+      <c r="AM11" s="3">
+        <f>S11*Sheet1!Q$221</f>
+        <v>143.27599999999998</v>
+      </c>
+      <c r="AN11" s="3">
+        <f>T11*Sheet1!R$221</f>
+        <v>146.047</v>
+      </c>
+      <c r="AO11" s="3">
+        <f>U11*Sheet1!S$221</f>
+        <v>146.7732</v>
+      </c>
+      <c r="AP11" s="3">
+        <f>V11*Sheet1!T$221</f>
+        <v>150.429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>200</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>240</v>
+        <f>$C12*Sheet1!B$220</f>
+        <v>203.6</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
-        <v>260</v>
+        <f>$C12*Sheet1!C$220</f>
+        <v>204.8</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="2"/>
-        <v>220.00000000000003</v>
+        <f>$C12*Sheet1!D$220</f>
+        <v>205.6</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="3"/>
-        <v>264</v>
+        <f>$C12*Sheet1!E$220</f>
+        <v>209.39999999999998</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="4"/>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C12*Sheet1!F$220</f>
+        <v>211.20000000000002</v>
+      </c>
+      <c r="I12" s="3">
+        <f>$C12*Sheet1!G$220</f>
+        <v>214</v>
+      </c>
+      <c r="J12" s="3">
+        <f>$C12*Sheet1!H$220</f>
+        <v>218.6</v>
+      </c>
+      <c r="K12" s="3">
+        <f>$C12*Sheet1!I$220</f>
+        <v>220.2</v>
+      </c>
+      <c r="L12" s="3">
+        <f>$C12*Sheet1!J$220</f>
+        <v>220.2</v>
+      </c>
+      <c r="M12" s="3">
+        <f>$C12*Sheet1!K$220</f>
+        <v>220.6</v>
+      </c>
+      <c r="N12" s="3">
+        <f>$C12*Sheet1!L$220</f>
+        <v>222.6</v>
+      </c>
+      <c r="O12" s="3">
+        <f>$C12*Sheet1!M$220</f>
+        <v>233.6</v>
+      </c>
+      <c r="P12" s="3">
+        <f>$C12*Sheet1!N$220</f>
+        <v>234.60000000000002</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>$C12*Sheet1!O$220</f>
+        <v>234.60000000000002</v>
+      </c>
+      <c r="R12" s="3">
+        <f>$C12*Sheet1!P$220</f>
+        <v>234.79999999999998</v>
+      </c>
+      <c r="S12" s="3">
+        <f>$C12*Sheet1!Q$220</f>
+        <v>238</v>
+      </c>
+      <c r="T12" s="3">
+        <f>$C12*Sheet1!R$220</f>
+        <v>241.4</v>
+      </c>
+      <c r="U12" s="3">
+        <f>$C12*Sheet1!S$220</f>
+        <v>242.20000000000002</v>
+      </c>
+      <c r="V12" s="3">
+        <f>$C12*Sheet1!T$220</f>
+        <v>246</v>
+      </c>
+      <c r="W12" s="3">
+        <f>C12*Sheet1!A$221</f>
+        <v>200.8</v>
+      </c>
+      <c r="X12" s="3">
+        <f>D12*Sheet1!B$221</f>
+        <v>204.4144</v>
+      </c>
+      <c r="Y12" s="3">
+        <f>E12*Sheet1!C$221</f>
+        <v>207.4624</v>
+      </c>
+      <c r="Z12" s="3">
+        <f>F12*Sheet1!D$221</f>
+        <v>210.32879999999997</v>
+      </c>
+      <c r="AA12" s="3">
+        <f>G12*Sheet1!E$221</f>
+        <v>217.98539999999997</v>
+      </c>
+      <c r="AB12" s="3">
+        <f>H12*Sheet1!F$221</f>
+        <v>220.2816</v>
+      </c>
+      <c r="AC12" s="3">
+        <f>I12*Sheet1!G$221</f>
+        <v>224.05799999999999</v>
+      </c>
+      <c r="AD12" s="3">
+        <f>J12*Sheet1!H$221</f>
+        <v>229.09280000000001</v>
+      </c>
+      <c r="AE12" s="3">
+        <f>K12*Sheet1!I$221</f>
+        <v>245.7432</v>
+      </c>
+      <c r="AF12" s="3">
+        <f>L12*Sheet1!J$221</f>
+        <v>247.94519999999997</v>
+      </c>
+      <c r="AG12" s="3">
+        <f>M12*Sheet1!K$221</f>
+        <v>249.49859999999998</v>
+      </c>
+      <c r="AH12" s="3">
+        <f>N12*Sheet1!L$221</f>
+        <v>254.65439999999998</v>
+      </c>
+      <c r="AI12" s="3">
+        <f>O12*Sheet1!M$221</f>
+        <v>269.3408</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f>P12*Sheet1!N$221</f>
+        <v>271.43220000000002</v>
+      </c>
+      <c r="AK12" s="3">
+        <f>Q12*Sheet1!O$221</f>
+        <v>278.70480000000003</v>
+      </c>
+      <c r="AL12" s="3">
+        <f>R12*Sheet1!P$221</f>
+        <v>282.69919999999996</v>
+      </c>
+      <c r="AM12" s="3">
+        <f>S12*Sheet1!Q$221</f>
+        <v>286.55199999999996</v>
+      </c>
+      <c r="AN12" s="3">
+        <f>T12*Sheet1!R$221</f>
+        <v>292.09399999999999</v>
+      </c>
+      <c r="AO12" s="3">
+        <f>U12*Sheet1!S$221</f>
+        <v>293.54640000000001</v>
+      </c>
+      <c r="AP12" s="3">
+        <f>V12*Sheet1!T$221</f>
+        <v>300.858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>300</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>360</v>
+        <f>$C13*Sheet1!B$220</f>
+        <v>305.39999999999998</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="1"/>
-        <v>390</v>
+        <f>$C13*Sheet1!C$220</f>
+        <v>307.2</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="2"/>
-        <v>330</v>
+        <f>$C13*Sheet1!D$220</f>
+        <v>308.40000000000003</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="3"/>
-        <v>396.00000000000006</v>
+        <f>$C13*Sheet1!E$220</f>
+        <v>314.09999999999997</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="4"/>
-        <v>429.00000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C13*Sheet1!F$220</f>
+        <v>316.8</v>
+      </c>
+      <c r="I13" s="3">
+        <f>$C13*Sheet1!G$220</f>
+        <v>321</v>
+      </c>
+      <c r="J13" s="3">
+        <f>$C13*Sheet1!H$220</f>
+        <v>327.9</v>
+      </c>
+      <c r="K13" s="3">
+        <f>$C13*Sheet1!I$220</f>
+        <v>330.3</v>
+      </c>
+      <c r="L13" s="3">
+        <f>$C13*Sheet1!J$220</f>
+        <v>330.3</v>
+      </c>
+      <c r="M13" s="3">
+        <f>$C13*Sheet1!K$220</f>
+        <v>330.9</v>
+      </c>
+      <c r="N13" s="3">
+        <f>$C13*Sheet1!L$220</f>
+        <v>333.9</v>
+      </c>
+      <c r="O13" s="3">
+        <f>$C13*Sheet1!M$220</f>
+        <v>350.4</v>
+      </c>
+      <c r="P13" s="3">
+        <f>$C13*Sheet1!N$220</f>
+        <v>351.90000000000003</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>$C13*Sheet1!O$220</f>
+        <v>351.90000000000003</v>
+      </c>
+      <c r="R13" s="3">
+        <f>$C13*Sheet1!P$220</f>
+        <v>352.2</v>
+      </c>
+      <c r="S13" s="3">
+        <f>$C13*Sheet1!Q$220</f>
+        <v>357</v>
+      </c>
+      <c r="T13" s="3">
+        <f>$C13*Sheet1!R$220</f>
+        <v>362.1</v>
+      </c>
+      <c r="U13" s="3">
+        <f>$C13*Sheet1!S$220</f>
+        <v>363.3</v>
+      </c>
+      <c r="V13" s="3">
+        <f>$C13*Sheet1!T$220</f>
+        <v>369</v>
+      </c>
+      <c r="W13" s="3">
+        <f>C13*Sheet1!A$221</f>
+        <v>301.2</v>
+      </c>
+      <c r="X13" s="3">
+        <f>D13*Sheet1!B$221</f>
+        <v>306.6216</v>
+      </c>
+      <c r="Y13" s="3">
+        <f>E13*Sheet1!C$221</f>
+        <v>311.19359999999995</v>
+      </c>
+      <c r="Z13" s="3">
+        <f>F13*Sheet1!D$221</f>
+        <v>315.4932</v>
+      </c>
+      <c r="AA13" s="3">
+        <f>G13*Sheet1!E$221</f>
+        <v>326.97809999999993</v>
+      </c>
+      <c r="AB13" s="3">
+        <f>H13*Sheet1!F$221</f>
+        <v>330.42239999999998</v>
+      </c>
+      <c r="AC13" s="3">
+        <f>I13*Sheet1!G$221</f>
+        <v>336.08699999999999</v>
+      </c>
+      <c r="AD13" s="3">
+        <f>J13*Sheet1!H$221</f>
+        <v>343.63920000000002</v>
+      </c>
+      <c r="AE13" s="3">
+        <f>K13*Sheet1!I$221</f>
+        <v>368.61480000000006</v>
+      </c>
+      <c r="AF13" s="3">
+        <f>L13*Sheet1!J$221</f>
+        <v>371.9178</v>
+      </c>
+      <c r="AG13" s="3">
+        <f>M13*Sheet1!K$221</f>
+        <v>374.24789999999996</v>
+      </c>
+      <c r="AH13" s="3">
+        <f>N13*Sheet1!L$221</f>
+        <v>381.98159999999996</v>
+      </c>
+      <c r="AI13" s="3">
+        <f>O13*Sheet1!M$221</f>
+        <v>404.01119999999997</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f>P13*Sheet1!N$221</f>
+        <v>407.14830000000006</v>
+      </c>
+      <c r="AK13" s="3">
+        <f>Q13*Sheet1!O$221</f>
+        <v>418.05720000000002</v>
+      </c>
+      <c r="AL13" s="3">
+        <f>R13*Sheet1!P$221</f>
+        <v>424.04879999999997</v>
+      </c>
+      <c r="AM13" s="3">
+        <f>S13*Sheet1!Q$221</f>
+        <v>429.82799999999997</v>
+      </c>
+      <c r="AN13" s="3">
+        <f>T13*Sheet1!R$221</f>
+        <v>438.14100000000002</v>
+      </c>
+      <c r="AO13" s="3">
+        <f>U13*Sheet1!S$221</f>
+        <v>440.31959999999998</v>
+      </c>
+      <c r="AP13" s="3">
+        <f>V13*Sheet1!T$221</f>
+        <v>451.28700000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>2000</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>2400</v>
+        <f>$C14*Sheet1!B$220</f>
+        <v>2036</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="1"/>
-        <v>2600</v>
+        <f>$C14*Sheet1!C$220</f>
+        <v>2048</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="2"/>
-        <v>2200</v>
+        <f>$C14*Sheet1!D$220</f>
+        <v>2056</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="3"/>
-        <v>2640</v>
+        <f>$C14*Sheet1!E$220</f>
+        <v>2094</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="4"/>
-        <v>2860.0000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C14*Sheet1!F$220</f>
+        <v>2112</v>
+      </c>
+      <c r="I14" s="3">
+        <f>$C14*Sheet1!G$220</f>
+        <v>2140</v>
+      </c>
+      <c r="J14" s="3">
+        <f>$C14*Sheet1!H$220</f>
+        <v>2186</v>
+      </c>
+      <c r="K14" s="3">
+        <f>$C14*Sheet1!I$220</f>
+        <v>2202</v>
+      </c>
+      <c r="L14" s="3">
+        <f>$C14*Sheet1!J$220</f>
+        <v>2202</v>
+      </c>
+      <c r="M14" s="3">
+        <f>$C14*Sheet1!K$220</f>
+        <v>2206</v>
+      </c>
+      <c r="N14" s="3">
+        <f>$C14*Sheet1!L$220</f>
+        <v>2226</v>
+      </c>
+      <c r="O14" s="3">
+        <f>$C14*Sheet1!M$220</f>
+        <v>2336</v>
+      </c>
+      <c r="P14" s="3">
+        <f>$C14*Sheet1!N$220</f>
+        <v>2346</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>$C14*Sheet1!O$220</f>
+        <v>2346</v>
+      </c>
+      <c r="R14" s="3">
+        <f>$C14*Sheet1!P$220</f>
+        <v>2348</v>
+      </c>
+      <c r="S14" s="3">
+        <f>$C14*Sheet1!Q$220</f>
+        <v>2380</v>
+      </c>
+      <c r="T14" s="3">
+        <f>$C14*Sheet1!R$220</f>
+        <v>2414</v>
+      </c>
+      <c r="U14" s="3">
+        <f>$C14*Sheet1!S$220</f>
+        <v>2422</v>
+      </c>
+      <c r="V14" s="3">
+        <f>$C14*Sheet1!T$220</f>
+        <v>2460</v>
+      </c>
+      <c r="W14" s="3">
+        <f>C14*Sheet1!A$221</f>
+        <v>2008</v>
+      </c>
+      <c r="X14" s="3">
+        <f>D14*Sheet1!B$221</f>
+        <v>2044.144</v>
+      </c>
+      <c r="Y14" s="3">
+        <f>E14*Sheet1!C$221</f>
+        <v>2074.6239999999998</v>
+      </c>
+      <c r="Z14" s="3">
+        <f>F14*Sheet1!D$221</f>
+        <v>2103.288</v>
+      </c>
+      <c r="AA14" s="3">
+        <f>G14*Sheet1!E$221</f>
+        <v>2179.8539999999998</v>
+      </c>
+      <c r="AB14" s="3">
+        <f>H14*Sheet1!F$221</f>
+        <v>2202.8159999999998</v>
+      </c>
+      <c r="AC14" s="3">
+        <f>I14*Sheet1!G$221</f>
+        <v>2240.58</v>
+      </c>
+      <c r="AD14" s="3">
+        <f>J14*Sheet1!H$221</f>
+        <v>2290.9279999999999</v>
+      </c>
+      <c r="AE14" s="3">
+        <f>K14*Sheet1!I$221</f>
+        <v>2457.4320000000002</v>
+      </c>
+      <c r="AF14" s="3">
+        <f>L14*Sheet1!J$221</f>
+        <v>2479.4519999999998</v>
+      </c>
+      <c r="AG14" s="3">
+        <f>M14*Sheet1!K$221</f>
+        <v>2494.9859999999999</v>
+      </c>
+      <c r="AH14" s="3">
+        <f>N14*Sheet1!L$221</f>
+        <v>2546.5439999999999</v>
+      </c>
+      <c r="AI14" s="3">
+        <f>O14*Sheet1!M$221</f>
+        <v>2693.4079999999999</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f>P14*Sheet1!N$221</f>
+        <v>2714.3220000000001</v>
+      </c>
+      <c r="AK14" s="3">
+        <f>Q14*Sheet1!O$221</f>
+        <v>2787.0479999999998</v>
+      </c>
+      <c r="AL14" s="3">
+        <f>R14*Sheet1!P$221</f>
+        <v>2826.9919999999997</v>
+      </c>
+      <c r="AM14" s="3">
+        <f>S14*Sheet1!Q$221</f>
+        <v>2865.52</v>
+      </c>
+      <c r="AN14" s="3">
+        <f>T14*Sheet1!R$221</f>
+        <v>2920.94</v>
+      </c>
+      <c r="AO14" s="3">
+        <f>U14*Sheet1!S$221</f>
+        <v>2935.4639999999999</v>
+      </c>
+      <c r="AP14" s="3">
+        <f>V14*Sheet1!T$221</f>
+        <v>3008.5800000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>362.01780000000002</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>434.42135999999999</v>
+        <f>$C15*Sheet1!B$220</f>
+        <v>368.53412040000001</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>470.62314000000003</v>
+        <f>$C15*Sheet1!C$220</f>
+        <v>370.70622720000006</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="2"/>
-        <v>398.21958000000006</v>
+        <f>$C15*Sheet1!D$220</f>
+        <v>372.15429840000002</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="3"/>
-        <v>477.86349600000005</v>
+        <f>$C15*Sheet1!E$220</f>
+        <v>379.03263659999999</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="4"/>
-        <v>517.68545400000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C15*Sheet1!F$220</f>
+        <v>382.29079680000007</v>
+      </c>
+      <c r="I15" s="3">
+        <f>$C15*Sheet1!G$220</f>
+        <v>387.35904600000003</v>
+      </c>
+      <c r="J15" s="3">
+        <f>$C15*Sheet1!H$220</f>
+        <v>395.68545540000002</v>
+      </c>
+      <c r="K15" s="3">
+        <f>$C15*Sheet1!I$220</f>
+        <v>398.5815978</v>
+      </c>
+      <c r="L15" s="3">
+        <f>$C15*Sheet1!J$220</f>
+        <v>398.5815978</v>
+      </c>
+      <c r="M15" s="3">
+        <f>$C15*Sheet1!K$220</f>
+        <v>399.30563340000003</v>
+      </c>
+      <c r="N15" s="3">
+        <f>$C15*Sheet1!L$220</f>
+        <v>402.92581140000004</v>
+      </c>
+      <c r="O15" s="3">
+        <f>$C15*Sheet1!M$220</f>
+        <v>422.83679039999998</v>
+      </c>
+      <c r="P15" s="3">
+        <f>$C15*Sheet1!N$220</f>
+        <v>424.64687940000005</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>$C15*Sheet1!O$220</f>
+        <v>424.64687940000005</v>
+      </c>
+      <c r="R15" s="3">
+        <f>$C15*Sheet1!P$220</f>
+        <v>425.00889719999998</v>
+      </c>
+      <c r="S15" s="3">
+        <f>$C15*Sheet1!Q$220</f>
+        <v>430.80118199999998</v>
+      </c>
+      <c r="T15" s="3">
+        <f>$C15*Sheet1!R$220</f>
+        <v>436.95548460000003</v>
+      </c>
+      <c r="U15" s="3">
+        <f>$C15*Sheet1!S$220</f>
+        <v>438.40355580000005</v>
+      </c>
+      <c r="V15" s="3">
+        <f>$C15*Sheet1!T$220</f>
+        <v>445.28189400000002</v>
+      </c>
+      <c r="W15" s="3">
+        <f>C15*Sheet1!A$221</f>
+        <v>363.46587120000004</v>
+      </c>
+      <c r="X15" s="3">
+        <f>D15*Sheet1!B$221</f>
+        <v>370.0082568816</v>
+      </c>
+      <c r="Y15" s="3">
+        <f>E15*Sheet1!C$221</f>
+        <v>375.52540815360004</v>
+      </c>
+      <c r="Z15" s="3">
+        <f>F15*Sheet1!D$221</f>
+        <v>380.71384726319997</v>
+      </c>
+      <c r="AA15" s="3">
+        <f>G15*Sheet1!E$221</f>
+        <v>394.57297470059996</v>
+      </c>
+      <c r="AB15" s="3">
+        <f>H15*Sheet1!F$221</f>
+        <v>398.72930106240005</v>
+      </c>
+      <c r="AC15" s="3">
+        <f>I15*Sheet1!G$221</f>
+        <v>405.56492116200002</v>
+      </c>
+      <c r="AD15" s="3">
+        <f>J15*Sheet1!H$221</f>
+        <v>414.67835725920003</v>
+      </c>
+      <c r="AE15" s="3">
+        <f>K15*Sheet1!I$221</f>
+        <v>444.81706314480004</v>
+      </c>
+      <c r="AF15" s="3">
+        <f>L15*Sheet1!J$221</f>
+        <v>448.80287912279994</v>
+      </c>
+      <c r="AG15" s="3">
+        <f>M15*Sheet1!K$221</f>
+        <v>451.61467137540006</v>
+      </c>
+      <c r="AH15" s="3">
+        <f>N15*Sheet1!L$221</f>
+        <v>460.94712824160001</v>
+      </c>
+      <c r="AI15" s="3">
+        <f>O15*Sheet1!M$221</f>
+        <v>487.53081933120001</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f>P15*Sheet1!N$221</f>
+        <v>491.31643946580004</v>
+      </c>
+      <c r="AK15" s="3">
+        <f>Q15*Sheet1!O$221</f>
+        <v>504.48049272720004</v>
+      </c>
+      <c r="AL15" s="3">
+        <f>R15*Sheet1!P$221</f>
+        <v>511.71071222879993</v>
+      </c>
+      <c r="AM15" s="3">
+        <f>S15*Sheet1!Q$221</f>
+        <v>518.684623128</v>
+      </c>
+      <c r="AN15" s="3">
+        <f>T15*Sheet1!R$221</f>
+        <v>528.716136366</v>
+      </c>
+      <c r="AO15" s="3">
+        <f>U15*Sheet1!S$221</f>
+        <v>531.34510962960007</v>
+      </c>
+      <c r="AP15" s="3">
+        <f>V15*Sheet1!T$221</f>
+        <v>544.57975636200001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>268.21319999999997</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>321.85583999999994</v>
+        <f>$C16*Sheet1!B$220</f>
+        <v>273.04103759999998</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="1"/>
-        <v>348.67715999999996</v>
+        <f>$C16*Sheet1!C$220</f>
+        <v>274.65031679999998</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="2"/>
-        <v>295.03451999999999</v>
+        <f>$C16*Sheet1!D$220</f>
+        <v>275.72316960000001</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="3"/>
-        <v>354.04142399999995</v>
+        <f>$C16*Sheet1!E$220</f>
+        <v>280.81922039999995</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="4"/>
-        <v>383.54487599999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C16*Sheet1!F$220</f>
+        <v>283.23313919999998</v>
+      </c>
+      <c r="I16" s="3">
+        <f>$C16*Sheet1!G$220</f>
+        <v>286.98812399999997</v>
+      </c>
+      <c r="J16" s="3">
+        <f>$C16*Sheet1!H$220</f>
+        <v>293.15702759999994</v>
+      </c>
+      <c r="K16" s="3">
+        <f>$C16*Sheet1!I$220</f>
+        <v>295.30273319999998</v>
+      </c>
+      <c r="L16" s="3">
+        <f>$C16*Sheet1!J$220</f>
+        <v>295.30273319999998</v>
+      </c>
+      <c r="M16" s="3">
+        <f>$C16*Sheet1!K$220</f>
+        <v>295.83915959999996</v>
+      </c>
+      <c r="N16" s="3">
+        <f>$C16*Sheet1!L$220</f>
+        <v>298.52129159999998</v>
+      </c>
+      <c r="O16" s="3">
+        <f>$C16*Sheet1!M$220</f>
+        <v>313.27301759999995</v>
+      </c>
+      <c r="P16" s="3">
+        <f>$C16*Sheet1!N$220</f>
+        <v>314.61408359999996</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>$C16*Sheet1!O$220</f>
+        <v>314.61408359999996</v>
+      </c>
+      <c r="R16" s="3">
+        <f>$C16*Sheet1!P$220</f>
+        <v>314.88229679999995</v>
+      </c>
+      <c r="S16" s="3">
+        <f>$C16*Sheet1!Q$220</f>
+        <v>319.17370799999998</v>
+      </c>
+      <c r="T16" s="3">
+        <f>$C16*Sheet1!R$220</f>
+        <v>323.73333239999999</v>
+      </c>
+      <c r="U16" s="3">
+        <f>$C16*Sheet1!S$220</f>
+        <v>324.80618519999996</v>
+      </c>
+      <c r="V16" s="3">
+        <f>$C16*Sheet1!T$220</f>
+        <v>329.90223599999996</v>
+      </c>
+      <c r="W16" s="3">
+        <f>C16*Sheet1!A$221</f>
+        <v>269.28605279999999</v>
+      </c>
+      <c r="X16" s="3">
+        <f>D16*Sheet1!B$221</f>
+        <v>274.13320175039996</v>
+      </c>
+      <c r="Y16" s="3">
+        <f>E16*Sheet1!C$221</f>
+        <v>278.22077091839998</v>
+      </c>
+      <c r="Z16" s="3">
+        <f>F16*Sheet1!D$221</f>
+        <v>282.0648025008</v>
+      </c>
+      <c r="AA16" s="3">
+        <f>G16*Sheet1!E$221</f>
+        <v>292.33280843639994</v>
+      </c>
+      <c r="AB16" s="3">
+        <f>H16*Sheet1!F$221</f>
+        <v>295.41216418559998</v>
+      </c>
+      <c r="AC16" s="3">
+        <f>I16*Sheet1!G$221</f>
+        <v>300.47656582799993</v>
+      </c>
+      <c r="AD16" s="3">
+        <f>J16*Sheet1!H$221</f>
+        <v>307.22856492479997</v>
+      </c>
+      <c r="AE16" s="3">
+        <f>K16*Sheet1!I$221</f>
+        <v>329.55785025120002</v>
+      </c>
+      <c r="AF16" s="3">
+        <f>L16*Sheet1!J$221</f>
+        <v>332.51087758319994</v>
+      </c>
+      <c r="AG16" s="3">
+        <f>M16*Sheet1!K$221</f>
+        <v>334.59408950759996</v>
+      </c>
+      <c r="AH16" s="3">
+        <f>N16*Sheet1!L$221</f>
+        <v>341.50835759039995</v>
+      </c>
+      <c r="AI16" s="3">
+        <f>O16*Sheet1!M$221</f>
+        <v>361.20378929279997</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f>P16*Sheet1!N$221</f>
+        <v>364.00849472519997</v>
+      </c>
+      <c r="AK16" s="3">
+        <f>Q16*Sheet1!O$221</f>
+        <v>373.76153131679996</v>
+      </c>
+      <c r="AL16" s="3">
+        <f>R16*Sheet1!P$221</f>
+        <v>379.1182853471999</v>
+      </c>
+      <c r="AM16" s="3">
+        <f>S16*Sheet1!Q$221</f>
+        <v>384.28514443199998</v>
+      </c>
+      <c r="AN16" s="3">
+        <f>T16*Sheet1!R$221</f>
+        <v>391.717332204</v>
+      </c>
+      <c r="AO16" s="3">
+        <f>U16*Sheet1!S$221</f>
+        <v>393.66509646239996</v>
+      </c>
+      <c r="AP16" s="3">
+        <f>V16*Sheet1!T$221</f>
+        <v>403.47043462799996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>603.42960000000005</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>724.11552000000006</v>
+        <f>$C17*Sheet1!B$220</f>
+        <v>614.29133280000008</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
-        <v>784.45848000000012</v>
+        <f>$C17*Sheet1!C$220</f>
+        <v>617.91191040000001</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="2"/>
-        <v>663.77256000000011</v>
+        <f>$C17*Sheet1!D$220</f>
+        <v>620.32562880000012</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="3"/>
-        <v>796.52707200000009</v>
+        <f>$C17*Sheet1!E$220</f>
+        <v>631.79079120000006</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="4"/>
-        <v>862.90432800000019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C17*Sheet1!F$220</f>
+        <v>637.22165760000007</v>
+      </c>
+      <c r="I17" s="3">
+        <f>$C17*Sheet1!G$220</f>
+        <v>645.66967200000011</v>
+      </c>
+      <c r="J17" s="3">
+        <f>$C17*Sheet1!H$220</f>
+        <v>659.54855280000004</v>
+      </c>
+      <c r="K17" s="3">
+        <f>$C17*Sheet1!I$220</f>
+        <v>664.37598960000003</v>
+      </c>
+      <c r="L17" s="3">
+        <f>$C17*Sheet1!J$220</f>
+        <v>664.37598960000003</v>
+      </c>
+      <c r="M17" s="3">
+        <f>$C17*Sheet1!K$220</f>
+        <v>665.58284880000008</v>
+      </c>
+      <c r="N17" s="3">
+        <f>$C17*Sheet1!L$220</f>
+        <v>671.61714480000001</v>
+      </c>
+      <c r="O17" s="3">
+        <f>$C17*Sheet1!M$220</f>
+        <v>704.8057728</v>
+      </c>
+      <c r="P17" s="3">
+        <f>$C17*Sheet1!N$220</f>
+        <v>707.82292080000013</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>$C17*Sheet1!O$220</f>
+        <v>707.82292080000013</v>
+      </c>
+      <c r="R17" s="3">
+        <f>$C17*Sheet1!P$220</f>
+        <v>708.42635040000005</v>
+      </c>
+      <c r="S17" s="3">
+        <f>$C17*Sheet1!Q$220</f>
+        <v>718.08122400000002</v>
+      </c>
+      <c r="T17" s="3">
+        <f>$C17*Sheet1!R$220</f>
+        <v>728.33952720000013</v>
+      </c>
+      <c r="U17" s="3">
+        <f>$C17*Sheet1!S$220</f>
+        <v>730.75324560000013</v>
+      </c>
+      <c r="V17" s="3">
+        <f>$C17*Sheet1!T$220</f>
+        <v>742.21840800000007</v>
+      </c>
+      <c r="W17" s="3">
+        <f>C17*Sheet1!A$221</f>
+        <v>605.84331840000004</v>
+      </c>
+      <c r="X17" s="3">
+        <f>D17*Sheet1!B$221</f>
+        <v>616.74849813120011</v>
+      </c>
+      <c r="Y17" s="3">
+        <f>E17*Sheet1!C$221</f>
+        <v>625.94476523519995</v>
+      </c>
+      <c r="Z17" s="3">
+        <f>F17*Sheet1!D$221</f>
+        <v>634.59311826240003</v>
+      </c>
+      <c r="AA17" s="3">
+        <f>G17*Sheet1!E$221</f>
+        <v>657.69421363920003</v>
+      </c>
+      <c r="AB17" s="3">
+        <f>H17*Sheet1!F$221</f>
+        <v>664.62218887680001</v>
+      </c>
+      <c r="AC17" s="3">
+        <f>I17*Sheet1!G$221</f>
+        <v>676.01614658400001</v>
+      </c>
+      <c r="AD17" s="3">
+        <f>J17*Sheet1!H$221</f>
+        <v>691.20688333440012</v>
+      </c>
+      <c r="AE17" s="3">
+        <f>K17*Sheet1!I$221</f>
+        <v>741.44360439360014</v>
+      </c>
+      <c r="AF17" s="3">
+        <f>L17*Sheet1!J$221</f>
+        <v>748.08736428959992</v>
+      </c>
+      <c r="AG17" s="3">
+        <f>M17*Sheet1!K$221</f>
+        <v>752.77420199280004</v>
+      </c>
+      <c r="AH17" s="3">
+        <f>N17*Sheet1!L$221</f>
+        <v>768.33001365119992</v>
+      </c>
+      <c r="AI17" s="3">
+        <f>O17*Sheet1!M$221</f>
+        <v>812.64105603840005</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f>P17*Sheet1!N$221</f>
+        <v>818.95111936560022</v>
+      </c>
+      <c r="AK17" s="3">
+        <f>Q17*Sheet1!O$221</f>
+        <v>840.89362991040014</v>
+      </c>
+      <c r="AL17" s="3">
+        <f>R17*Sheet1!P$221</f>
+        <v>852.94532588160007</v>
+      </c>
+      <c r="AM17" s="3">
+        <f>S17*Sheet1!Q$221</f>
+        <v>864.56979369600003</v>
+      </c>
+      <c r="AN17" s="3">
+        <f>T17*Sheet1!R$221</f>
+        <v>881.29082791200017</v>
+      </c>
+      <c r="AO17" s="3">
+        <f>U17*Sheet1!S$221</f>
+        <v>885.67293366720014</v>
+      </c>
+      <c r="AP17" s="3">
+        <f>V17*Sheet1!T$221</f>
+        <v>907.73311298400017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>469.42309999999998</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>563.3077199999999</v>
+        <f>$C18*Sheet1!B$220</f>
+        <v>477.87271579999998</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="1"/>
-        <v>610.25003000000004</v>
+        <f>$C18*Sheet1!C$220</f>
+        <v>480.68925439999998</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="2"/>
-        <v>516.36541</v>
+        <f>$C18*Sheet1!D$220</f>
+        <v>482.56694679999998</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="3"/>
-        <v>619.63849199999993</v>
+        <f>$C18*Sheet1!E$220</f>
+        <v>491.48598569999996</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="4"/>
-        <v>671.27503300000012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C18*Sheet1!F$220</f>
+        <v>495.71079359999999</v>
+      </c>
+      <c r="I18" s="3">
+        <f>$C18*Sheet1!G$220</f>
+        <v>502.28271699999999</v>
+      </c>
+      <c r="J18" s="3">
+        <f>$C18*Sheet1!H$220</f>
+        <v>513.07944829999997</v>
+      </c>
+      <c r="K18" s="3">
+        <f>$C18*Sheet1!I$220</f>
+        <v>516.83483309999997</v>
+      </c>
+      <c r="L18" s="3">
+        <f>$C18*Sheet1!J$220</f>
+        <v>516.83483309999997</v>
+      </c>
+      <c r="M18" s="3">
+        <f>$C18*Sheet1!K$220</f>
+        <v>517.77367929999991</v>
+      </c>
+      <c r="N18" s="3">
+        <f>$C18*Sheet1!L$220</f>
+        <v>522.46791029999997</v>
+      </c>
+      <c r="O18" s="3">
+        <f>$C18*Sheet1!M$220</f>
+        <v>548.2861807999999</v>
+      </c>
+      <c r="P18" s="3">
+        <f>$C18*Sheet1!N$220</f>
+        <v>550.63329629999998</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>$C18*Sheet1!O$220</f>
+        <v>550.63329629999998</v>
+      </c>
+      <c r="R18" s="3">
+        <f>$C18*Sheet1!P$220</f>
+        <v>551.10271939999996</v>
+      </c>
+      <c r="S18" s="3">
+        <f>$C18*Sheet1!Q$220</f>
+        <v>558.61348899999996</v>
+      </c>
+      <c r="T18" s="3">
+        <f>$C18*Sheet1!R$220</f>
+        <v>566.59368170000005</v>
+      </c>
+      <c r="U18" s="3">
+        <f>$C18*Sheet1!S$220</f>
+        <v>568.47137410000005</v>
+      </c>
+      <c r="V18" s="3">
+        <f>$C18*Sheet1!T$220</f>
+        <v>577.39041299999997</v>
+      </c>
+      <c r="W18" s="3">
+        <f>C18*Sheet1!A$221</f>
+        <v>471.30079239999998</v>
+      </c>
+      <c r="X18" s="3">
+        <f>D18*Sheet1!B$221</f>
+        <v>479.7842066632</v>
+      </c>
+      <c r="Y18" s="3">
+        <f>E18*Sheet1!C$221</f>
+        <v>486.93821470719996</v>
+      </c>
+      <c r="Z18" s="3">
+        <f>F18*Sheet1!D$221</f>
+        <v>493.66598657639992</v>
+      </c>
+      <c r="AA18" s="3">
+        <f>G18*Sheet1!E$221</f>
+        <v>511.63691111369991</v>
+      </c>
+      <c r="AB18" s="3">
+        <f>H18*Sheet1!F$221</f>
+        <v>517.02635772479994</v>
+      </c>
+      <c r="AC18" s="3">
+        <f>I18*Sheet1!G$221</f>
+        <v>525.89000469899997</v>
+      </c>
+      <c r="AD18" s="3">
+        <f>J18*Sheet1!H$221</f>
+        <v>537.70726181839996</v>
+      </c>
+      <c r="AE18" s="3">
+        <f>K18*Sheet1!I$221</f>
+        <v>576.7876737396</v>
+      </c>
+      <c r="AF18" s="3">
+        <f>L18*Sheet1!J$221</f>
+        <v>581.95602207059994</v>
+      </c>
+      <c r="AG18" s="3">
+        <f>M18*Sheet1!K$221</f>
+        <v>585.60203128829994</v>
+      </c>
+      <c r="AH18" s="3">
+        <f>N18*Sheet1!L$221</f>
+        <v>597.70328938319994</v>
+      </c>
+      <c r="AI18" s="3">
+        <f>O18*Sheet1!M$221</f>
+        <v>632.1739664623999</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f>P18*Sheet1!N$221</f>
+        <v>637.08272381910001</v>
+      </c>
+      <c r="AK18" s="3">
+        <f>Q18*Sheet1!O$221</f>
+        <v>654.15235600439996</v>
+      </c>
+      <c r="AL18" s="3">
+        <f>R18*Sheet1!P$221</f>
+        <v>663.5276741575999</v>
+      </c>
+      <c r="AM18" s="3">
+        <f>S18*Sheet1!Q$221</f>
+        <v>672.57064075599988</v>
+      </c>
+      <c r="AN18" s="3">
+        <f>T18*Sheet1!R$221</f>
+        <v>685.57835485700002</v>
+      </c>
+      <c r="AO18" s="3">
+        <f>U18*Sheet1!S$221</f>
+        <v>688.98730540920008</v>
+      </c>
+      <c r="AP18" s="3">
+        <f>V18*Sheet1!T$221</f>
+        <v>706.14847509900005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>67.003299999999996</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>80.403959999999998</v>
+        <f>$C19*Sheet1!B$220</f>
+        <v>68.209359399999997</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="1"/>
-        <v>87.104289999999992</v>
+        <f>$C19*Sheet1!C$220</f>
+        <v>68.611379200000002</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="2"/>
-        <v>73.703630000000004</v>
+        <f>$C19*Sheet1!D$220</f>
+        <v>68.8793924</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="3"/>
-        <v>88.444355999999999</v>
+        <f>$C19*Sheet1!E$220</f>
+        <v>70.152455099999997</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="4"/>
-        <v>95.814718999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C19*Sheet1!F$220</f>
+        <v>70.755484800000005</v>
+      </c>
+      <c r="I19" s="3">
+        <f>$C19*Sheet1!G$220</f>
+        <v>71.693530999999993</v>
+      </c>
+      <c r="J19" s="3">
+        <f>$C19*Sheet1!H$220</f>
+        <v>73.234606899999989</v>
+      </c>
+      <c r="K19" s="3">
+        <f>$C19*Sheet1!I$220</f>
+        <v>73.7706333</v>
+      </c>
+      <c r="L19" s="3">
+        <f>$C19*Sheet1!J$220</f>
+        <v>73.7706333</v>
+      </c>
+      <c r="M19" s="3">
+        <f>$C19*Sheet1!K$220</f>
+        <v>73.904639899999992</v>
+      </c>
+      <c r="N19" s="3">
+        <f>$C19*Sheet1!L$220</f>
+        <v>74.574672899999996</v>
+      </c>
+      <c r="O19" s="3">
+        <f>$C19*Sheet1!M$220</f>
+        <v>78.259854399999995</v>
+      </c>
+      <c r="P19" s="3">
+        <f>$C19*Sheet1!N$220</f>
+        <v>78.594870900000004</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>$C19*Sheet1!O$220</f>
+        <v>78.594870900000004</v>
+      </c>
+      <c r="R19" s="3">
+        <f>$C19*Sheet1!P$220</f>
+        <v>78.661874199999986</v>
+      </c>
+      <c r="S19" s="3">
+        <f>$C19*Sheet1!Q$220</f>
+        <v>79.733926999999994</v>
+      </c>
+      <c r="T19" s="3">
+        <f>$C19*Sheet1!R$220</f>
+        <v>80.872983099999999</v>
+      </c>
+      <c r="U19" s="3">
+        <f>$C19*Sheet1!S$220</f>
+        <v>81.140996299999998</v>
+      </c>
+      <c r="V19" s="3">
+        <f>$C19*Sheet1!T$220</f>
+        <v>82.414058999999995</v>
+      </c>
+      <c r="W19" s="3">
+        <f>C19*Sheet1!A$221</f>
+        <v>67.271313199999994</v>
+      </c>
+      <c r="X19" s="3">
+        <f>D19*Sheet1!B$221</f>
+        <v>68.4821968376</v>
+      </c>
+      <c r="Y19" s="3">
+        <f>E19*Sheet1!C$221</f>
+        <v>69.503327129599995</v>
+      </c>
+      <c r="Z19" s="3">
+        <f>F19*Sheet1!D$221</f>
+        <v>70.463618425199996</v>
+      </c>
+      <c r="AA19" s="3">
+        <f>G19*Sheet1!E$221</f>
+        <v>73.028705759099992</v>
+      </c>
+      <c r="AB19" s="3">
+        <f>H19*Sheet1!F$221</f>
+        <v>73.797970646400003</v>
+      </c>
+      <c r="AC19" s="3">
+        <f>I19*Sheet1!G$221</f>
+        <v>75.063126956999994</v>
+      </c>
+      <c r="AD19" s="3">
+        <f>J19*Sheet1!H$221</f>
+        <v>76.749868031199995</v>
+      </c>
+      <c r="AE19" s="3">
+        <f>K19*Sheet1!I$221</f>
+        <v>82.328026762800008</v>
+      </c>
+      <c r="AF19" s="3">
+        <f>L19*Sheet1!J$221</f>
+        <v>83.065733095799999</v>
+      </c>
+      <c r="AG19" s="3">
+        <f>M19*Sheet1!K$221</f>
+        <v>83.586147726899995</v>
+      </c>
+      <c r="AH19" s="3">
+        <f>N19*Sheet1!L$221</f>
+        <v>85.31342579759999</v>
+      </c>
+      <c r="AI19" s="3">
+        <f>O19*Sheet1!M$221</f>
+        <v>90.23361212319999</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f>P19*Sheet1!N$221</f>
+        <v>90.934265631300008</v>
+      </c>
+      <c r="AK19" s="3">
+        <f>Q19*Sheet1!O$221</f>
+        <v>93.370706629200001</v>
+      </c>
+      <c r="AL19" s="3">
+        <f>R19*Sheet1!P$221</f>
+        <v>94.708896536799983</v>
+      </c>
+      <c r="AM19" s="3">
+        <f>S19*Sheet1!Q$221</f>
+        <v>95.999648107999988</v>
+      </c>
+      <c r="AN19" s="3">
+        <f>T19*Sheet1!R$221</f>
+        <v>97.856309550999995</v>
+      </c>
+      <c r="AO19" s="3">
+        <f>U19*Sheet1!S$221</f>
+        <v>98.342887515599998</v>
+      </c>
+      <c r="AP19" s="3">
+        <f>V19*Sheet1!T$221</f>
+        <v>100.792394157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>536.42629999999997</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>643.71155999999996</v>
+        <f>$C20*Sheet1!B$220</f>
+        <v>546.08197339999992</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="1"/>
-        <v>697.35419000000002</v>
+        <f>$C20*Sheet1!C$220</f>
+        <v>549.30053120000002</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="2"/>
-        <v>590.06893000000002</v>
+        <f>$C20*Sheet1!D$220</f>
+        <v>551.44623639999998</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="3"/>
-        <v>708.082716</v>
+        <f>$C20*Sheet1!E$220</f>
+        <v>561.63833609999995</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="4"/>
-        <v>767.08960900000011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C20*Sheet1!F$220</f>
+        <v>566.46617279999998</v>
+      </c>
+      <c r="I20" s="3">
+        <f>$C20*Sheet1!G$220</f>
+        <v>573.97614099999998</v>
+      </c>
+      <c r="J20" s="3">
+        <f>$C20*Sheet1!H$220</f>
+        <v>586.31394589999991</v>
+      </c>
+      <c r="K20" s="3">
+        <f>$C20*Sheet1!I$220</f>
+        <v>590.60535629999993</v>
+      </c>
+      <c r="L20" s="3">
+        <f>$C20*Sheet1!J$220</f>
+        <v>590.60535629999993</v>
+      </c>
+      <c r="M20" s="3">
+        <f>$C20*Sheet1!K$220</f>
+        <v>591.67820889999996</v>
+      </c>
+      <c r="N20" s="3">
+        <f>$C20*Sheet1!L$220</f>
+        <v>597.04247190000001</v>
+      </c>
+      <c r="O20" s="3">
+        <f>$C20*Sheet1!M$220</f>
+        <v>626.54591839999989</v>
+      </c>
+      <c r="P20" s="3">
+        <f>$C20*Sheet1!N$220</f>
+        <v>629.22804989999997</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>$C20*Sheet1!O$220</f>
+        <v>629.22804989999997</v>
+      </c>
+      <c r="R20" s="3">
+        <f>$C20*Sheet1!P$220</f>
+        <v>629.76447619999988</v>
+      </c>
+      <c r="S20" s="3">
+        <f>$C20*Sheet1!Q$220</f>
+        <v>638.34729699999991</v>
+      </c>
+      <c r="T20" s="3">
+        <f>$C20*Sheet1!R$220</f>
+        <v>647.46654409999996</v>
+      </c>
+      <c r="U20" s="3">
+        <f>$C20*Sheet1!S$220</f>
+        <v>649.61224930000003</v>
+      </c>
+      <c r="V20" s="3">
+        <f>$C20*Sheet1!T$220</f>
+        <v>659.804349</v>
+      </c>
+      <c r="W20" s="3">
+        <f>C20*Sheet1!A$221</f>
+        <v>538.57200519999992</v>
+      </c>
+      <c r="X20" s="3">
+        <f>D20*Sheet1!B$221</f>
+        <v>548.26630129359989</v>
+      </c>
+      <c r="Y20" s="3">
+        <f>E20*Sheet1!C$221</f>
+        <v>556.44143810560001</v>
+      </c>
+      <c r="Z20" s="3">
+        <f>F20*Sheet1!D$221</f>
+        <v>564.12949983719989</v>
+      </c>
+      <c r="AA20" s="3">
+        <f>G20*Sheet1!E$221</f>
+        <v>584.66550788009988</v>
+      </c>
+      <c r="AB20" s="3">
+        <f>H20*Sheet1!F$221</f>
+        <v>590.82421823039999</v>
+      </c>
+      <c r="AC20" s="3">
+        <f>I20*Sheet1!G$221</f>
+        <v>600.95301962699989</v>
+      </c>
+      <c r="AD20" s="3">
+        <f>J20*Sheet1!H$221</f>
+        <v>614.45701530319991</v>
+      </c>
+      <c r="AE20" s="3">
+        <f>K20*Sheet1!I$221</f>
+        <v>659.11557763079998</v>
+      </c>
+      <c r="AF20" s="3">
+        <f>L20*Sheet1!J$221</f>
+        <v>665.02163119379986</v>
+      </c>
+      <c r="AG20" s="3">
+        <f>M20*Sheet1!K$221</f>
+        <v>669.18805426589995</v>
+      </c>
+      <c r="AH20" s="3">
+        <f>N20*Sheet1!L$221</f>
+        <v>683.01658785359996</v>
+      </c>
+      <c r="AI20" s="3">
+        <f>O20*Sheet1!M$221</f>
+        <v>722.40744391519991</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f>P20*Sheet1!N$221</f>
+        <v>728.01685373429996</v>
+      </c>
+      <c r="AK20" s="3">
+        <f>Q20*Sheet1!O$221</f>
+        <v>747.52292328119995</v>
+      </c>
+      <c r="AL20" s="3">
+        <f>R20*Sheet1!P$221</f>
+        <v>758.23642934479983</v>
+      </c>
+      <c r="AM20" s="3">
+        <f>S20*Sheet1!Q$221</f>
+        <v>768.57014558799983</v>
+      </c>
+      <c r="AN20" s="3">
+        <f>T20*Sheet1!R$221</f>
+        <v>783.43451836099996</v>
+      </c>
+      <c r="AO20" s="3">
+        <f>U20*Sheet1!S$221</f>
+        <v>787.33004615159996</v>
+      </c>
+      <c r="AP20" s="3">
+        <f>V20*Sheet1!T$221</f>
+        <v>806.94071882700007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>500</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <f>$C21*Sheet1!B$220</f>
+        <v>509</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="1"/>
-        <v>650</v>
+        <f>$C21*Sheet1!C$220</f>
+        <v>512</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="2"/>
-        <v>550</v>
+        <f>$C21*Sheet1!D$220</f>
+        <v>514</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="3"/>
-        <v>660</v>
+        <f>$C21*Sheet1!E$220</f>
+        <v>523.5</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="4"/>
-        <v>715.00000000000011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C21*Sheet1!F$220</f>
+        <v>528</v>
+      </c>
+      <c r="I21" s="3">
+        <f>$C21*Sheet1!G$220</f>
+        <v>535</v>
+      </c>
+      <c r="J21" s="3">
+        <f>$C21*Sheet1!H$220</f>
+        <v>546.5</v>
+      </c>
+      <c r="K21" s="3">
+        <f>$C21*Sheet1!I$220</f>
+        <v>550.5</v>
+      </c>
+      <c r="L21" s="3">
+        <f>$C21*Sheet1!J$220</f>
+        <v>550.5</v>
+      </c>
+      <c r="M21" s="3">
+        <f>$C21*Sheet1!K$220</f>
+        <v>551.5</v>
+      </c>
+      <c r="N21" s="3">
+        <f>$C21*Sheet1!L$220</f>
+        <v>556.5</v>
+      </c>
+      <c r="O21" s="3">
+        <f>$C21*Sheet1!M$220</f>
+        <v>584</v>
+      </c>
+      <c r="P21" s="3">
+        <f>$C21*Sheet1!N$220</f>
+        <v>586.5</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>$C21*Sheet1!O$220</f>
+        <v>586.5</v>
+      </c>
+      <c r="R21" s="3">
+        <f>$C21*Sheet1!P$220</f>
+        <v>587</v>
+      </c>
+      <c r="S21" s="3">
+        <f>$C21*Sheet1!Q$220</f>
+        <v>595</v>
+      </c>
+      <c r="T21" s="3">
+        <f>$C21*Sheet1!R$220</f>
+        <v>603.5</v>
+      </c>
+      <c r="U21" s="3">
+        <f>$C21*Sheet1!S$220</f>
+        <v>605.5</v>
+      </c>
+      <c r="V21" s="3">
+        <f>$C21*Sheet1!T$220</f>
+        <v>615</v>
+      </c>
+      <c r="W21" s="3">
+        <f>C21*Sheet1!A$221</f>
+        <v>502</v>
+      </c>
+      <c r="X21" s="3">
+        <f>D21*Sheet1!B$221</f>
+        <v>511.036</v>
+      </c>
+      <c r="Y21" s="3">
+        <f>E21*Sheet1!C$221</f>
+        <v>518.65599999999995</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>F21*Sheet1!D$221</f>
+        <v>525.822</v>
+      </c>
+      <c r="AA21" s="3">
+        <f>G21*Sheet1!E$221</f>
+        <v>544.96349999999995</v>
+      </c>
+      <c r="AB21" s="3">
+        <f>H21*Sheet1!F$221</f>
+        <v>550.70399999999995</v>
+      </c>
+      <c r="AC21" s="3">
+        <f>I21*Sheet1!G$221</f>
+        <v>560.14499999999998</v>
+      </c>
+      <c r="AD21" s="3">
+        <f>J21*Sheet1!H$221</f>
+        <v>572.73199999999997</v>
+      </c>
+      <c r="AE21" s="3">
+        <f>K21*Sheet1!I$221</f>
+        <v>614.35800000000006</v>
+      </c>
+      <c r="AF21" s="3">
+        <f>L21*Sheet1!J$221</f>
+        <v>619.86299999999994</v>
+      </c>
+      <c r="AG21" s="3">
+        <f>M21*Sheet1!K$221</f>
+        <v>623.74649999999997</v>
+      </c>
+      <c r="AH21" s="3">
+        <f>N21*Sheet1!L$221</f>
+        <v>636.63599999999997</v>
+      </c>
+      <c r="AI21" s="3">
+        <f>O21*Sheet1!M$221</f>
+        <v>673.35199999999998</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f>P21*Sheet1!N$221</f>
+        <v>678.58050000000003</v>
+      </c>
+      <c r="AK21" s="3">
+        <f>Q21*Sheet1!O$221</f>
+        <v>696.76199999999994</v>
+      </c>
+      <c r="AL21" s="3">
+        <f>R21*Sheet1!P$221</f>
+        <v>706.74799999999993</v>
+      </c>
+      <c r="AM21" s="3">
+        <f>S21*Sheet1!Q$221</f>
+        <v>716.38</v>
+      </c>
+      <c r="AN21" s="3">
+        <f>T21*Sheet1!R$221</f>
+        <v>730.23500000000001</v>
+      </c>
+      <c r="AO21" s="3">
+        <f>U21*Sheet1!S$221</f>
+        <v>733.86599999999999</v>
+      </c>
+      <c r="AP21" s="3">
+        <f>V21*Sheet1!T$221</f>
+        <v>752.1450000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>300</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>360</v>
+        <f>$C22*Sheet1!B$220</f>
+        <v>305.39999999999998</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="1"/>
-        <v>390</v>
+        <f>$C22*Sheet1!C$220</f>
+        <v>307.2</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="2"/>
-        <v>330</v>
+        <f>$C22*Sheet1!D$220</f>
+        <v>308.40000000000003</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="3"/>
-        <v>396.00000000000006</v>
+        <f>$C22*Sheet1!E$220</f>
+        <v>314.09999999999997</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="4"/>
-        <v>429.00000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$C22*Sheet1!F$220</f>
+        <v>316.8</v>
+      </c>
+      <c r="I22" s="3">
+        <f>$C22*Sheet1!G$220</f>
+        <v>321</v>
+      </c>
+      <c r="J22" s="3">
+        <f>$C22*Sheet1!H$220</f>
+        <v>327.9</v>
+      </c>
+      <c r="K22" s="3">
+        <f>$C22*Sheet1!I$220</f>
+        <v>330.3</v>
+      </c>
+      <c r="L22" s="3">
+        <f>$C22*Sheet1!J$220</f>
+        <v>330.3</v>
+      </c>
+      <c r="M22" s="3">
+        <f>$C22*Sheet1!K$220</f>
+        <v>330.9</v>
+      </c>
+      <c r="N22" s="3">
+        <f>$C22*Sheet1!L$220</f>
+        <v>333.9</v>
+      </c>
+      <c r="O22" s="3">
+        <f>$C22*Sheet1!M$220</f>
+        <v>350.4</v>
+      </c>
+      <c r="P22" s="3">
+        <f>$C22*Sheet1!N$220</f>
+        <v>351.90000000000003</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>$C22*Sheet1!O$220</f>
+        <v>351.90000000000003</v>
+      </c>
+      <c r="R22" s="3">
+        <f>$C22*Sheet1!P$220</f>
+        <v>352.2</v>
+      </c>
+      <c r="S22" s="3">
+        <f>$C22*Sheet1!Q$220</f>
+        <v>357</v>
+      </c>
+      <c r="T22" s="3">
+        <f>$C22*Sheet1!R$220</f>
+        <v>362.1</v>
+      </c>
+      <c r="U22" s="3">
+        <f>$C22*Sheet1!S$220</f>
+        <v>363.3</v>
+      </c>
+      <c r="V22" s="3">
+        <f>$C22*Sheet1!T$220</f>
+        <v>369</v>
+      </c>
+      <c r="W22" s="3">
+        <f>C22*Sheet1!A$221</f>
+        <v>301.2</v>
+      </c>
+      <c r="X22" s="3">
+        <f>D22*Sheet1!B$221</f>
+        <v>306.6216</v>
+      </c>
+      <c r="Y22" s="3">
+        <f>E22*Sheet1!C$221</f>
+        <v>311.19359999999995</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>F22*Sheet1!D$221</f>
+        <v>315.4932</v>
+      </c>
+      <c r="AA22" s="3">
+        <f>G22*Sheet1!E$221</f>
+        <v>326.97809999999993</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>H22*Sheet1!F$221</f>
+        <v>330.42239999999998</v>
+      </c>
+      <c r="AC22" s="3">
+        <f>I22*Sheet1!G$221</f>
+        <v>336.08699999999999</v>
+      </c>
+      <c r="AD22" s="3">
+        <f>J22*Sheet1!H$221</f>
+        <v>343.63920000000002</v>
+      </c>
+      <c r="AE22" s="3">
+        <f>K22*Sheet1!I$221</f>
+        <v>368.61480000000006</v>
+      </c>
+      <c r="AF22" s="3">
+        <f>L22*Sheet1!J$221</f>
+        <v>371.9178</v>
+      </c>
+      <c r="AG22" s="3">
+        <f>M22*Sheet1!K$221</f>
+        <v>374.24789999999996</v>
+      </c>
+      <c r="AH22" s="3">
+        <f>N22*Sheet1!L$221</f>
+        <v>381.98159999999996</v>
+      </c>
+      <c r="AI22" s="3">
+        <f>O22*Sheet1!M$221</f>
+        <v>404.01119999999997</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f>P22*Sheet1!N$221</f>
+        <v>407.14830000000006</v>
+      </c>
+      <c r="AK22" s="3">
+        <f>Q22*Sheet1!O$221</f>
+        <v>418.05720000000002</v>
+      </c>
+      <c r="AL22" s="3">
+        <f>R22*Sheet1!P$221</f>
+        <v>424.04879999999997</v>
+      </c>
+      <c r="AM22" s="3">
+        <f>S22*Sheet1!Q$221</f>
+        <v>429.82799999999997</v>
+      </c>
+      <c r="AN22" s="3">
+        <f>T22*Sheet1!R$221</f>
+        <v>438.14100000000002</v>
+      </c>
+      <c r="AO22" s="3">
+        <f>U22*Sheet1!S$221</f>
+        <v>440.31959999999998</v>
+      </c>
+      <c r="AP22" s="3">
+        <f>V22*Sheet1!T$221</f>
+        <v>451.28700000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>590</v>
       </c>
       <c r="D23" s="3">
-        <f>+C23*1.2</f>
-        <v>708</v>
+        <f>$C23*Sheet1!B$220</f>
+        <v>600.62</v>
       </c>
       <c r="E23" s="3">
-        <f>+C23*1.3</f>
-        <v>767</v>
+        <f>$C23*Sheet1!C$220</f>
+        <v>604.16</v>
       </c>
       <c r="F23" s="3">
-        <f>+C23*1.1</f>
-        <v>649</v>
+        <f>$C23*Sheet1!D$220</f>
+        <v>606.52</v>
       </c>
       <c r="G23" s="3">
-        <f>+D23*1.1</f>
-        <v>778.80000000000007</v>
+        <f>$C23*Sheet1!E$220</f>
+        <v>617.7299999999999</v>
       </c>
       <c r="H23" s="3">
-        <f>+E23*1.1</f>
-        <v>843.7</v>
+        <f>$C23*Sheet1!F$220</f>
+        <v>623.04000000000008</v>
+      </c>
+      <c r="I23" s="3">
+        <f>$C23*Sheet1!G$220</f>
+        <v>631.30000000000007</v>
+      </c>
+      <c r="J23" s="3">
+        <f>$C23*Sheet1!H$220</f>
+        <v>644.87</v>
+      </c>
+      <c r="K23" s="3">
+        <f>$C23*Sheet1!I$220</f>
+        <v>649.59</v>
+      </c>
+      <c r="L23" s="3">
+        <f>$C23*Sheet1!J$220</f>
+        <v>649.59</v>
+      </c>
+      <c r="M23" s="3">
+        <f>$C23*Sheet1!K$220</f>
+        <v>650.77</v>
+      </c>
+      <c r="N23" s="3">
+        <f>$C23*Sheet1!L$220</f>
+        <v>656.67</v>
+      </c>
+      <c r="O23" s="3">
+        <f>$C23*Sheet1!M$220</f>
+        <v>689.12</v>
+      </c>
+      <c r="P23" s="3">
+        <f>$C23*Sheet1!N$220</f>
+        <v>692.07</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>$C23*Sheet1!O$220</f>
+        <v>692.07</v>
+      </c>
+      <c r="R23" s="3">
+        <f>$C23*Sheet1!P$220</f>
+        <v>692.66</v>
+      </c>
+      <c r="S23" s="3">
+        <f>$C23*Sheet1!Q$220</f>
+        <v>702.1</v>
+      </c>
+      <c r="T23" s="3">
+        <f>$C23*Sheet1!R$220</f>
+        <v>712.13</v>
+      </c>
+      <c r="U23" s="3">
+        <f>$C23*Sheet1!S$220</f>
+        <v>714.49</v>
+      </c>
+      <c r="V23" s="3">
+        <f>$C23*Sheet1!T$220</f>
+        <v>725.7</v>
+      </c>
+      <c r="W23" s="3">
+        <f>C23*Sheet1!A$221</f>
+        <v>592.36</v>
+      </c>
+      <c r="X23" s="3">
+        <f>D23*Sheet1!B$221</f>
+        <v>603.02247999999997</v>
+      </c>
+      <c r="Y23" s="3">
+        <f>E23*Sheet1!C$221</f>
+        <v>612.01407999999992</v>
+      </c>
+      <c r="Z23" s="3">
+        <f>F23*Sheet1!D$221</f>
+        <v>620.4699599999999</v>
+      </c>
+      <c r="AA23" s="3">
+        <f>G23*Sheet1!E$221</f>
+        <v>643.05692999999985</v>
+      </c>
+      <c r="AB23" s="3">
+        <f>H23*Sheet1!F$221</f>
+        <v>649.83072000000004</v>
+      </c>
+      <c r="AC23" s="3">
+        <f>I23*Sheet1!G$221</f>
+        <v>660.97109999999998</v>
+      </c>
+      <c r="AD23" s="3">
+        <f>J23*Sheet1!H$221</f>
+        <v>675.82375999999999</v>
+      </c>
+      <c r="AE23" s="3">
+        <f>K23*Sheet1!I$221</f>
+        <v>724.94244000000015</v>
+      </c>
+      <c r="AF23" s="3">
+        <f>L23*Sheet1!J$221</f>
+        <v>731.43833999999993</v>
+      </c>
+      <c r="AG23" s="3">
+        <f>M23*Sheet1!K$221</f>
+        <v>736.02086999999995</v>
+      </c>
+      <c r="AH23" s="3">
+        <f>N23*Sheet1!L$221</f>
+        <v>751.23047999999994</v>
+      </c>
+      <c r="AI23" s="3">
+        <f>O23*Sheet1!M$221</f>
+        <v>794.55536000000006</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f>P23*Sheet1!N$221</f>
+        <v>800.72499000000005</v>
+      </c>
+      <c r="AK23" s="3">
+        <f>Q23*Sheet1!O$221</f>
+        <v>822.17916000000002</v>
+      </c>
+      <c r="AL23" s="3">
+        <f>R23*Sheet1!P$221</f>
+        <v>833.96263999999996</v>
+      </c>
+      <c r="AM23" s="3">
+        <f>S23*Sheet1!Q$221</f>
+        <v>845.32839999999999</v>
+      </c>
+      <c r="AN23" s="3">
+        <f>T23*Sheet1!R$221</f>
+        <v>861.67729999999995</v>
+      </c>
+      <c r="AO23" s="3">
+        <f>U23*Sheet1!S$221</f>
+        <v>865.96187999999995</v>
+      </c>
+      <c r="AP23" s="3">
+        <f>V23*Sheet1!T$221</f>
+        <v>887.53110000000015</v>
       </c>
     </row>
   </sheetData>
@@ -4388,15 +7671,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61C359E-1A2D-4672-B6D6-30C1E767833F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4412,8 +7695,59 @@
       <c r="E1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4421,16 +7755,87 @@
         <v>0.2</v>
       </c>
       <c r="C2">
-        <v>4000</v>
+        <f>Sheet1!A226</f>
+        <v>315</v>
       </c>
       <c r="D2">
-        <v>2000</v>
+        <f>Sheet1!B226</f>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!C226</f>
+        <v>490</v>
+      </c>
+      <c r="F2">
+        <f>Sheet1!D226</f>
+        <v>779</v>
+      </c>
+      <c r="G2">
+        <f>Sheet1!E226</f>
+        <v>700</v>
+      </c>
+      <c r="H2">
+        <f>Sheet1!F226</f>
+        <v>411</v>
+      </c>
+      <c r="I2">
+        <f>Sheet1!G226</f>
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <f>Sheet1!H226</f>
+        <v>814</v>
+      </c>
+      <c r="K2">
+        <f>Sheet1!I226</f>
+        <v>613</v>
+      </c>
+      <c r="L2">
+        <f>Sheet1!J226</f>
+        <v>586</v>
+      </c>
+      <c r="M2">
+        <f>Sheet1!K226</f>
+        <v>166</v>
+      </c>
+      <c r="N2">
+        <f>Sheet1!L226</f>
+        <v>88</v>
+      </c>
+      <c r="O2">
+        <f>Sheet1!M226</f>
+        <v>254</v>
+      </c>
+      <c r="P2">
+        <f>Sheet1!N226</f>
+        <v>481</v>
+      </c>
+      <c r="Q2">
+        <f>Sheet1!O226</f>
+        <v>866</v>
+      </c>
+      <c r="R2">
+        <f>Sheet1!P226</f>
+        <v>298</v>
+      </c>
+      <c r="S2">
+        <f>Sheet1!Q226</f>
+        <v>455</v>
+      </c>
+      <c r="T2">
+        <f>Sheet1!R226</f>
+        <v>53</v>
+      </c>
+      <c r="U2">
+        <f>Sheet1!S226</f>
+        <v>411</v>
+      </c>
+      <c r="V2">
+        <f>Sheet1!T226</f>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4438,13 +7843,84 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>3000</v>
+        <f>Sheet1!A227</f>
+        <v>351</v>
       </c>
       <c r="D3">
-        <v>3000</v>
+        <f>Sheet1!B227</f>
+        <v>330</v>
       </c>
       <c r="E3">
-        <v>2760</v>
+        <f>Sheet1!C227</f>
+        <v>330</v>
+      </c>
+      <c r="F3">
+        <f>Sheet1!D227</f>
+        <v>681</v>
+      </c>
+      <c r="G3">
+        <f>Sheet1!E227</f>
+        <v>419</v>
+      </c>
+      <c r="H3">
+        <f>Sheet1!F227</f>
+        <v>598</v>
+      </c>
+      <c r="I3">
+        <f>Sheet1!G227</f>
+        <v>248</v>
+      </c>
+      <c r="J3">
+        <f>Sheet1!H227</f>
+        <v>206</v>
+      </c>
+      <c r="K3">
+        <f>Sheet1!I227</f>
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <f>Sheet1!J227</f>
+        <v>598</v>
+      </c>
+      <c r="M3">
+        <f>Sheet1!K227</f>
+        <v>378</v>
+      </c>
+      <c r="N3">
+        <f>Sheet1!L227</f>
+        <v>275</v>
+      </c>
+      <c r="O3">
+        <f>Sheet1!M227</f>
+        <v>646</v>
+      </c>
+      <c r="P3">
+        <f>Sheet1!N227</f>
+        <v>550</v>
+      </c>
+      <c r="Q3">
+        <f>Sheet1!O227</f>
+        <v>440</v>
+      </c>
+      <c r="R3">
+        <f>Sheet1!P227</f>
+        <v>268</v>
+      </c>
+      <c r="S3">
+        <f>Sheet1!Q227</f>
+        <v>688</v>
+      </c>
+      <c r="T3">
+        <f>Sheet1!R227</f>
+        <v>523</v>
+      </c>
+      <c r="U3">
+        <f>Sheet1!S227</f>
+        <v>578</v>
+      </c>
+      <c r="V3">
+        <f>Sheet1!T227</f>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -4455,20 +7931,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8220161E-E50B-40E4-92C1-F5DF9FECCFE5}">
-  <dimension ref="A2:V216"/>
+  <dimension ref="A2:V227"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4512,12 +7988,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4558,7 +8034,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>2</v>
       </c>
@@ -4599,7 +8075,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>3</v>
       </c>
@@ -4640,7 +8116,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>4</v>
       </c>
@@ -4681,7 +8157,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>5</v>
       </c>
@@ -4722,7 +8198,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>6</v>
       </c>
@@ -4763,7 +8239,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>7</v>
       </c>
@@ -4804,7 +8280,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>8</v>
       </c>
@@ -4845,7 +8321,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>9</v>
       </c>
@@ -4886,7 +8362,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <v>10</v>
       </c>
@@ -4927,7 +8403,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <v>11</v>
       </c>
@@ -4968,7 +8444,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <v>12</v>
       </c>
@@ -5009,7 +8485,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <v>13</v>
       </c>
@@ -5050,7 +8526,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <v>14</v>
       </c>
@@ -5091,7 +8567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <v>15</v>
       </c>
@@ -5132,7 +8608,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <v>16</v>
       </c>
@@ -5173,7 +8649,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <v>17</v>
       </c>
@@ -5214,7 +8690,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
         <v>18</v>
       </c>
@@ -5255,7 +8731,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
         <v>19</v>
       </c>
@@ -5296,7 +8772,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
         <v>20</v>
       </c>
@@ -5337,7 +8813,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B25">
         <v>21</v>
       </c>
@@ -5378,7 +8854,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B26">
         <v>22</v>
       </c>
@@ -5419,7 +8895,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <v>23</v>
       </c>
@@ -5460,7 +8936,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B28">
         <v>24</v>
       </c>
@@ -5501,7 +8977,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B29">
         <v>25</v>
       </c>
@@ -5542,7 +9018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B30">
         <v>26</v>
       </c>
@@ -5583,7 +9059,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B31">
         <v>27</v>
       </c>
@@ -5624,7 +9100,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B32">
         <v>28</v>
       </c>
@@ -5665,7 +9141,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B33">
         <v>29</v>
       </c>
@@ -5706,7 +9182,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B34">
         <v>30</v>
       </c>
@@ -5747,7 +9223,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
         <v>31</v>
       </c>
@@ -5788,7 +9264,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B36">
         <v>32</v>
       </c>
@@ -5829,7 +9305,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B37">
         <v>33</v>
       </c>
@@ -5870,7 +9346,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B38">
         <v>34</v>
       </c>
@@ -5911,7 +9387,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B39">
         <v>35</v>
       </c>
@@ -5952,7 +9428,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B40">
         <v>36</v>
       </c>
@@ -5993,7 +9469,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B41">
         <v>37</v>
       </c>
@@ -6034,7 +9510,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B42">
         <v>38</v>
       </c>
@@ -6075,7 +9551,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B43">
         <v>39</v>
       </c>
@@ -6116,7 +9592,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B44">
         <v>40</v>
       </c>
@@ -6157,7 +9633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B45">
         <v>41</v>
       </c>
@@ -6198,7 +9674,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B46">
         <v>42</v>
       </c>
@@ -6239,7 +9715,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B47">
         <v>43</v>
       </c>
@@ -6280,7 +9756,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B48">
         <v>44</v>
       </c>
@@ -6321,7 +9797,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B49">
         <v>45</v>
       </c>
@@ -6362,7 +9838,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B50">
         <v>46</v>
       </c>
@@ -6403,7 +9879,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B51">
         <v>47</v>
       </c>
@@ -6444,7 +9920,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B52">
         <v>48</v>
       </c>
@@ -6485,7 +9961,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B53">
         <v>49</v>
       </c>
@@ -6526,7 +10002,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B54">
         <v>50</v>
       </c>
@@ -6567,7 +10043,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B55">
         <v>51</v>
       </c>
@@ -6608,7 +10084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B56">
         <v>52</v>
       </c>
@@ -6649,7 +10125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B57">
         <v>53</v>
       </c>
@@ -6690,7 +10166,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B58">
         <v>54</v>
       </c>
@@ -6731,7 +10207,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B59">
         <v>55</v>
       </c>
@@ -6772,7 +10248,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B60">
         <v>56</v>
       </c>
@@ -6813,7 +10289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B61">
         <v>57</v>
       </c>
@@ -6854,7 +10330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B62">
         <v>58</v>
       </c>
@@ -6895,7 +10371,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B63">
         <v>59</v>
       </c>
@@ -6936,7 +10412,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B64">
         <v>60</v>
       </c>
@@ -6977,17 +10453,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -7055,12 +10531,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B70">
         <v>38</v>
       </c>
@@ -7125,7 +10601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B71">
         <v>39</v>
       </c>
@@ -7190,7 +10666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B72">
         <v>40</v>
       </c>
@@ -7255,7 +10731,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B73">
         <v>41</v>
       </c>
@@ -7320,7 +10796,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B74">
         <v>42</v>
       </c>
@@ -7385,7 +10861,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B75">
         <v>43</v>
       </c>
@@ -7450,7 +10926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B76">
         <v>44</v>
       </c>
@@ -7515,7 +10991,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B77">
         <v>45</v>
       </c>
@@ -7580,7 +11056,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B78">
         <v>46</v>
       </c>
@@ -7645,7 +11121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B79">
         <v>47</v>
       </c>
@@ -7710,7 +11186,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B80">
         <v>48</v>
       </c>
@@ -7775,7 +11251,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B81">
         <v>49</v>
       </c>
@@ -7840,7 +11316,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B82">
         <v>50</v>
       </c>
@@ -7905,7 +11381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B83">
         <v>51</v>
       </c>
@@ -7970,7 +11446,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B84">
         <v>52</v>
       </c>
@@ -8035,7 +11511,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B85">
         <v>53</v>
       </c>
@@ -8100,7 +11576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B86">
         <v>54</v>
       </c>
@@ -8165,7 +11641,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B87">
         <v>55</v>
       </c>
@@ -8230,7 +11706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B88">
         <v>56</v>
       </c>
@@ -8295,7 +11771,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B89">
         <v>57</v>
       </c>
@@ -8360,7 +11836,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B90">
         <v>58</v>
       </c>
@@ -8425,7 +11901,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B91">
         <v>59</v>
       </c>
@@ -8490,7 +11966,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B92">
         <v>60</v>
       </c>
@@ -8555,17 +12031,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -8609,12 +12085,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B98">
         <v>1</v>
       </c>
@@ -8655,7 +12131,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B99">
         <v>1</v>
       </c>
@@ -8696,7 +12172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B100">
         <v>2</v>
       </c>
@@ -8737,7 +12213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B101">
         <v>2</v>
       </c>
@@ -8778,7 +12254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B102">
         <v>3</v>
       </c>
@@ -8819,7 +12295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B103">
         <v>3</v>
       </c>
@@ -8860,7 +12336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B104">
         <v>25</v>
       </c>
@@ -8901,7 +12377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B105">
         <v>25</v>
       </c>
@@ -8942,7 +12418,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B106">
         <v>5</v>
       </c>
@@ -8983,7 +12459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B107">
         <v>5</v>
       </c>
@@ -9024,7 +12500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B108">
         <v>5</v>
       </c>
@@ -9065,7 +12541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B109">
         <v>5</v>
       </c>
@@ -9106,7 +12582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B110">
         <v>6</v>
       </c>
@@ -9147,7 +12623,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B111">
         <v>6</v>
       </c>
@@ -9188,7 +12664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B112">
         <v>6</v>
       </c>
@@ -9229,7 +12705,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B113">
         <v>7</v>
       </c>
@@ -9270,7 +12746,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B114">
         <v>7</v>
       </c>
@@ -9311,7 +12787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B115">
         <v>10</v>
       </c>
@@ -9352,7 +12828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B116">
         <v>10</v>
       </c>
@@ -9393,7 +12869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B117">
         <v>26</v>
       </c>
@@ -9434,7 +12910,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B118">
         <v>26</v>
       </c>
@@ -9475,7 +12951,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B119">
         <v>26</v>
       </c>
@@ -9516,7 +12992,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B120">
         <v>26</v>
       </c>
@@ -9557,7 +13033,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B121">
         <v>23</v>
       </c>
@@ -9598,7 +13074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B122">
         <v>23</v>
       </c>
@@ -9639,7 +13115,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B123">
         <v>27</v>
       </c>
@@ -9680,7 +13156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B124">
         <v>27</v>
       </c>
@@ -9721,7 +13197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B125">
         <v>30</v>
       </c>
@@ -9762,7 +13238,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B126">
         <v>28</v>
       </c>
@@ -9803,7 +13279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B127">
         <v>28</v>
       </c>
@@ -9844,7 +13320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B128">
         <v>31</v>
       </c>
@@ -9885,7 +13361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B129">
         <v>31</v>
       </c>
@@ -9926,7 +13402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B130">
         <v>32</v>
       </c>
@@ -9967,7 +13443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B131">
         <v>31</v>
       </c>
@@ -10008,7 +13484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B132">
         <v>33</v>
       </c>
@@ -10049,7 +13525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B133">
         <v>29</v>
       </c>
@@ -10090,7 +13566,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B134">
         <v>34</v>
       </c>
@@ -10131,7 +13607,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B135">
         <v>29</v>
       </c>
@@ -10172,7 +13648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B136">
         <v>35</v>
       </c>
@@ -10213,7 +13689,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B137">
         <v>14</v>
       </c>
@@ -10254,7 +13730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B138">
         <v>14</v>
       </c>
@@ -10295,7 +13771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B139">
         <v>15</v>
       </c>
@@ -10336,7 +13812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B140">
         <v>15</v>
       </c>
@@ -10377,7 +13853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B141">
         <v>16</v>
       </c>
@@ -10418,7 +13894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B142">
         <v>16</v>
       </c>
@@ -10459,7 +13935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B143">
         <v>16</v>
       </c>
@@ -10500,7 +13976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B144">
         <v>36</v>
       </c>
@@ -10541,7 +14017,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B145">
         <v>36</v>
       </c>
@@ -10582,7 +14058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B146">
         <v>37</v>
       </c>
@@ -10623,7 +14099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B147">
         <v>37</v>
       </c>
@@ -10664,7 +14140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B148">
         <v>37</v>
       </c>
@@ -10705,7 +14181,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B149">
         <v>17</v>
       </c>
@@ -10746,7 +14222,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B150">
         <v>20</v>
       </c>
@@ -10787,7 +14263,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B151">
         <v>21</v>
       </c>
@@ -10828,7 +14304,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B152">
         <v>21</v>
       </c>
@@ -10869,7 +14345,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B153">
         <v>12</v>
       </c>
@@ -10910,7 +14386,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B154">
         <v>12</v>
       </c>
@@ -10951,7 +14427,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B155">
         <v>2</v>
       </c>
@@ -10992,7 +14468,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B156">
         <v>3</v>
       </c>
@@ -11033,7 +14509,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B157">
         <v>24</v>
       </c>
@@ -11074,7 +14550,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B158">
         <v>25</v>
       </c>
@@ -11115,7 +14591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B159">
         <v>4</v>
       </c>
@@ -11156,7 +14632,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B160">
         <v>6</v>
       </c>
@@ -11197,7 +14673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B161">
         <v>7</v>
       </c>
@@ -11238,7 +14714,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B162">
         <v>11</v>
       </c>
@@ -11279,7 +14755,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B163">
         <v>26</v>
       </c>
@@ -11320,7 +14796,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B164">
         <v>23</v>
       </c>
@@ -11361,7 +14837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B165">
         <v>27</v>
       </c>
@@ -11402,7 +14878,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B166">
         <v>31</v>
       </c>
@@ -11443,7 +14919,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B167">
         <v>14</v>
       </c>
@@ -11484,7 +14960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B168">
         <v>15</v>
       </c>
@@ -11525,7 +15001,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B169">
         <v>18</v>
       </c>
@@ -11566,7 +15042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B170">
         <v>18</v>
       </c>
@@ -11607,7 +15083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B171">
         <v>19</v>
       </c>
@@ -11648,7 +15124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B172">
         <v>19</v>
       </c>
@@ -11689,7 +15165,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B173">
         <v>21</v>
       </c>
@@ -11730,7 +15206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B174">
         <v>22</v>
       </c>
@@ -11771,7 +15247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B175">
         <v>22</v>
       </c>
@@ -11812,7 +15288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B176">
         <v>12</v>
       </c>
@@ -11853,7 +15329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B177">
         <v>13</v>
       </c>
@@ -11894,7 +15370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B178">
         <v>26</v>
       </c>
@@ -11935,7 +15411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B179">
         <v>23</v>
       </c>
@@ -11976,7 +15452,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B180">
         <v>28</v>
       </c>
@@ -12017,7 +15493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B181">
         <v>31</v>
       </c>
@@ -12058,7 +15534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B182">
         <v>36</v>
       </c>
@@ -12099,7 +15575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B183">
         <v>36</v>
       </c>
@@ -12140,7 +15616,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B184">
         <v>37</v>
       </c>
@@ -12181,7 +15657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B185">
         <v>37</v>
       </c>
@@ -12222,22 +15698,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>25</v>
       </c>
@@ -12269,7 +15745,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -12295,12 +15771,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B193">
         <v>2</v>
       </c>
@@ -12323,7 +15799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B194">
         <v>2</v>
       </c>
@@ -12346,7 +15822,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B195">
         <v>2</v>
       </c>
@@ -12369,7 +15845,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B196">
         <v>2</v>
       </c>
@@ -12392,7 +15868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B197">
         <v>2</v>
       </c>
@@ -12415,7 +15891,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B198">
         <v>2</v>
       </c>
@@ -12438,7 +15914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B199">
         <v>2</v>
       </c>
@@ -12461,7 +15937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B200">
         <v>2</v>
       </c>
@@ -12484,7 +15960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B201">
         <v>2</v>
       </c>
@@ -12507,7 +15983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B202">
         <v>2</v>
       </c>
@@ -12530,7 +16006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B203">
         <v>2</v>
       </c>
@@ -12553,7 +16029,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B204">
         <v>2</v>
       </c>
@@ -12576,7 +16052,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B205">
         <v>2</v>
       </c>
@@ -12599,7 +16075,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B206">
         <v>2</v>
       </c>
@@ -12622,7 +16098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B207">
         <v>2</v>
       </c>
@@ -12645,7 +16121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B208">
         <v>2</v>
       </c>
@@ -12668,7 +16144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B209">
         <v>2</v>
       </c>
@@ -12691,7 +16167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B210">
         <v>2</v>
       </c>
@@ -12714,7 +16190,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B211">
         <v>2</v>
       </c>
@@ -12737,7 +16213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B212">
         <v>2</v>
       </c>
@@ -12760,7 +16236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B213">
         <v>2</v>
       </c>
@@ -12783,7 +16259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B214">
         <v>2</v>
       </c>
@@ -12806,7 +16282,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B215">
         <v>2</v>
       </c>
@@ -12829,9 +16305,454 @@
         <v>64</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+      <c r="E219">
+        <v>5</v>
+      </c>
+      <c r="F219">
+        <v>6</v>
+      </c>
+      <c r="G219">
+        <v>7</v>
+      </c>
+      <c r="H219">
+        <v>8</v>
+      </c>
+      <c r="I219">
+        <v>9</v>
+      </c>
+      <c r="J219">
+        <v>10</v>
+      </c>
+      <c r="K219">
+        <v>11</v>
+      </c>
+      <c r="L219">
+        <v>12</v>
+      </c>
+      <c r="M219">
+        <v>13</v>
+      </c>
+      <c r="N219">
+        <v>14</v>
+      </c>
+      <c r="O219">
+        <v>15</v>
+      </c>
+      <c r="P219">
+        <v>16</v>
+      </c>
+      <c r="Q219">
+        <v>17</v>
+      </c>
+      <c r="R219">
+        <v>18</v>
+      </c>
+      <c r="S219">
+        <v>19</v>
+      </c>
+      <c r="T219">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220">
+        <v>1.01</v>
+      </c>
+      <c r="B220">
+        <v>1.018</v>
+      </c>
+      <c r="C220">
+        <v>1.024</v>
+      </c>
+      <c r="D220">
+        <v>1.028</v>
+      </c>
+      <c r="E220">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="F220">
+        <v>1.056</v>
+      </c>
+      <c r="G220">
+        <v>1.07</v>
+      </c>
+      <c r="H220">
+        <v>1.093</v>
+      </c>
+      <c r="I220">
+        <v>1.101</v>
+      </c>
+      <c r="J220">
+        <v>1.101</v>
+      </c>
+      <c r="K220">
+        <v>1.103</v>
+      </c>
+      <c r="L220">
+        <v>1.113</v>
+      </c>
+      <c r="M220">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="N220">
+        <v>1.173</v>
+      </c>
+      <c r="O220">
+        <v>1.173</v>
+      </c>
+      <c r="P220">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="Q220">
+        <v>1.19</v>
+      </c>
+      <c r="R220">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="S220">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="T220">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221">
+        <v>1.004</v>
+      </c>
+      <c r="B221">
+        <v>1.004</v>
+      </c>
+      <c r="C221">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="D221">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="E221">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="F221">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="G221">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="H221">
+        <v>1.048</v>
+      </c>
+      <c r="I221">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="J221">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="K221">
+        <v>1.131</v>
+      </c>
+      <c r="L221">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="M221">
+        <v>1.153</v>
+      </c>
+      <c r="N221">
+        <v>1.157</v>
+      </c>
+      <c r="O221">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="P221">
+        <v>1.204</v>
+      </c>
+      <c r="Q221">
+        <v>1.204</v>
+      </c>
+      <c r="R221">
+        <v>1.21</v>
+      </c>
+      <c r="S221">
+        <v>1.212</v>
+      </c>
+      <c r="T221">
+        <v>1.2230000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223">
+        <v>36</v>
+      </c>
+      <c r="B223">
+        <v>12</v>
+      </c>
+      <c r="C223">
+        <v>56</v>
+      </c>
+      <c r="D223">
+        <v>89</v>
+      </c>
+      <c r="E223">
+        <v>80</v>
+      </c>
+      <c r="F223">
+        <v>47</v>
+      </c>
+      <c r="G223">
+        <v>8</v>
+      </c>
+      <c r="H223">
+        <v>93</v>
+      </c>
+      <c r="I223">
+        <v>70</v>
+      </c>
+      <c r="J223">
+        <v>67</v>
+      </c>
+      <c r="K223">
+        <v>19</v>
+      </c>
+      <c r="L223">
+        <v>10</v>
+      </c>
+      <c r="M223">
+        <v>29</v>
+      </c>
+      <c r="N223">
+        <v>55</v>
+      </c>
+      <c r="O223">
+        <v>99</v>
+      </c>
+      <c r="P223">
+        <v>34</v>
+      </c>
+      <c r="Q223">
+        <v>52</v>
+      </c>
+      <c r="R223">
+        <v>6</v>
+      </c>
+      <c r="S223">
+        <v>47</v>
+      </c>
+      <c r="T223">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224">
+        <v>51</v>
+      </c>
+      <c r="B224">
+        <v>48</v>
+      </c>
+      <c r="C224">
+        <v>48</v>
+      </c>
+      <c r="D224">
+        <v>99</v>
+      </c>
+      <c r="E224">
+        <v>61</v>
+      </c>
+      <c r="F224">
+        <v>87</v>
+      </c>
+      <c r="G224">
+        <v>36</v>
+      </c>
+      <c r="H224">
+        <v>30</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>87</v>
+      </c>
+      <c r="K224">
+        <v>55</v>
+      </c>
+      <c r="L224">
+        <v>40</v>
+      </c>
+      <c r="M224">
+        <v>94</v>
+      </c>
+      <c r="N224">
+        <v>80</v>
+      </c>
+      <c r="O224">
+        <v>64</v>
+      </c>
+      <c r="P224">
+        <v>39</v>
+      </c>
+      <c r="Q224">
+        <v>100</v>
+      </c>
+      <c r="R224">
+        <v>76</v>
+      </c>
+      <c r="S224">
+        <v>84</v>
+      </c>
+      <c r="T224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226">
+        <v>315</v>
+      </c>
+      <c r="B226">
+        <v>105</v>
+      </c>
+      <c r="C226">
+        <v>490</v>
+      </c>
+      <c r="D226">
+        <v>779</v>
+      </c>
+      <c r="E226">
+        <v>700</v>
+      </c>
+      <c r="F226">
+        <v>411</v>
+      </c>
+      <c r="G226">
+        <v>70</v>
+      </c>
+      <c r="H226">
+        <v>814</v>
+      </c>
+      <c r="I226">
+        <v>613</v>
+      </c>
+      <c r="J226">
+        <v>586</v>
+      </c>
+      <c r="K226">
+        <v>166</v>
+      </c>
+      <c r="L226">
+        <v>88</v>
+      </c>
+      <c r="M226">
+        <v>254</v>
+      </c>
+      <c r="N226">
+        <v>481</v>
+      </c>
+      <c r="O226">
+        <v>866</v>
+      </c>
+      <c r="P226">
+        <v>298</v>
+      </c>
+      <c r="Q226">
+        <v>455</v>
+      </c>
+      <c r="R226">
+        <v>53</v>
+      </c>
+      <c r="S226">
+        <v>411</v>
+      </c>
+      <c r="T226">
+        <v>805</v>
+      </c>
+      <c r="U226">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227">
+        <v>351</v>
+      </c>
+      <c r="B227">
+        <v>330</v>
+      </c>
+      <c r="C227">
+        <v>330</v>
+      </c>
+      <c r="D227">
+        <v>681</v>
+      </c>
+      <c r="E227">
+        <v>419</v>
+      </c>
+      <c r="F227">
+        <v>598</v>
+      </c>
+      <c r="G227">
+        <v>248</v>
+      </c>
+      <c r="H227">
+        <v>206</v>
+      </c>
+      <c r="I227">
+        <v>7</v>
+      </c>
+      <c r="J227">
+        <v>598</v>
+      </c>
+      <c r="K227">
+        <v>378</v>
+      </c>
+      <c r="L227">
+        <v>275</v>
+      </c>
+      <c r="M227">
+        <v>646</v>
+      </c>
+      <c r="N227">
+        <v>550</v>
+      </c>
+      <c r="O227">
+        <v>440</v>
+      </c>
+      <c r="P227">
+        <v>268</v>
+      </c>
+      <c r="Q227">
+        <v>688</v>
+      </c>
+      <c r="R227">
+        <v>523</v>
+      </c>
+      <c r="S227">
+        <v>578</v>
+      </c>
+      <c r="T227">
+        <v>646</v>
+      </c>
+      <c r="U227">
+        <v>8760</v>
       </c>
     </row>
   </sheetData>
